--- a/capiq_data/in_process_data/IQ266974.xlsx
+++ b/capiq_data/in_process_data/IQ266974.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148F65AC-B83D-4982-BBC2-46F0AAD58A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B770FC-A858-479C-B1A4-6DC7012A2EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"476321fb-1831-4d5b-8601-20aedf13ee0c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"2bf3a2bd-fa18-471b-8580-7480731368a1"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
+  </si>
+  <si>
     <t>FQ32011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ32021</t>
+  </si>
+  <si>
+    <t>FQ42021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40480</v>
+        <v>36924</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>128.12</v>
+        <v>-32.155000000000001</v>
       </c>
       <c r="D2">
-        <v>3223.4270000000001</v>
+        <v>1441.7139999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1010.668</v>
+        <v>379.10199999999998</v>
       </c>
       <c r="G2">
-        <v>2272.7579999999998</v>
+        <v>1124.9269999999999</v>
       </c>
       <c r="H2">
-        <v>9349.5740000000005</v>
+        <v>2282.462</v>
       </c>
       <c r="I2">
-        <v>971.53800000000001</v>
+        <v>297.262</v>
       </c>
       <c r="J2">
-        <v>3332.2049999999999</v>
+        <v>720.76400000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1410.3150000000001</v>
+        <v>537.93499999999995</v>
       </c>
       <c r="O2">
-        <v>5532.1840000000002</v>
+        <v>1420.6990000000001</v>
       </c>
       <c r="P2">
-        <v>3333.5630000000001</v>
+        <v>729.79899999999998</v>
       </c>
       <c r="Q2">
-        <v>-43.515000000000001</v>
+        <v>134.352</v>
       </c>
       <c r="R2">
-        <v>40480</v>
+        <v>36924</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>39500</v>
       </c>
       <c r="T2">
-        <v>3817.39</v>
+        <v>861.76300000000003</v>
       </c>
       <c r="U2">
-        <v>237.90600000000001</v>
+        <v>162.31</v>
       </c>
       <c r="V2">
-        <v>124.49</v>
+        <v>232.15799999999999</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-12.715</v>
       </c>
       <c r="X2">
-        <v>-72.144000000000005</v>
+        <v>-74.614000000000004</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>128.12</v>
+        <v>-32.155000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40571</v>
+        <v>37015</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>222.54599999999999</v>
+        <v>36.232999999999997</v>
       </c>
       <c r="D3">
-        <v>3486.1039999999998</v>
+        <v>1202.5039999999999</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1130.153</v>
+        <v>321.42500000000001</v>
       </c>
       <c r="G3">
-        <v>2367.8249999999998</v>
+        <v>1126.2360000000001</v>
       </c>
       <c r="H3">
-        <v>9546.2219999999998</v>
+        <v>2301.5940000000001</v>
       </c>
       <c r="I3">
-        <v>953.64099999999996</v>
+        <v>282.56</v>
       </c>
       <c r="J3">
-        <v>3316.7869999999998</v>
+        <v>733.52599999999995</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-3.048</v>
       </c>
       <c r="N3">
-        <v>1365.373</v>
+        <v>510.44799999999998</v>
       </c>
       <c r="O3">
-        <v>5491.7430000000004</v>
+        <v>1405.9739999999999</v>
       </c>
       <c r="P3">
-        <v>3323.15</v>
+        <v>740.60900000000004</v>
       </c>
       <c r="Q3">
-        <v>259.54000000000002</v>
+        <v>-1.4159999999999999</v>
       </c>
       <c r="R3">
-        <v>40571</v>
+        <v>37015</v>
       </c>
       <c r="S3">
-        <v>85900</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4054.4789999999998</v>
+        <v>895.62</v>
       </c>
       <c r="U3">
-        <v>497.44600000000003</v>
+        <v>160.89400000000001</v>
       </c>
       <c r="V3">
-        <v>420.88799999999998</v>
+        <v>40.037999999999997</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-10.631</v>
       </c>
       <c r="X3">
-        <v>-0.77600000000000002</v>
+        <v>-5.8419999999999996</v>
       </c>
       <c r="Y3">
-        <v>5.2060000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>222.54599999999999</v>
+        <v>36.232999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40662</v>
+        <v>37106</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>156.96899999999999</v>
+        <v>27.1</v>
       </c>
       <c r="D4">
-        <v>3451.6970000000001</v>
+        <v>1225.2539999999999</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1087.3969999999999</v>
+        <v>331.28300000000002</v>
       </c>
       <c r="G4">
-        <v>2506.8969999999999</v>
+        <v>1140.6790000000001</v>
       </c>
       <c r="H4">
-        <v>9714.8639999999996</v>
+        <v>2330.3240000000001</v>
       </c>
       <c r="I4">
-        <v>933.71</v>
+        <v>294.78399999999999</v>
       </c>
       <c r="J4">
-        <v>3290.0520000000001</v>
+        <v>735.43499999999995</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,40 +1055,40 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-27.151</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1387.23</v>
+        <v>516.85900000000004</v>
       </c>
       <c r="O4">
-        <v>5495.2079999999996</v>
+        <v>1414.2940000000001</v>
       </c>
       <c r="P4">
-        <v>3291.0909999999999</v>
+        <v>743.37699999999995</v>
       </c>
       <c r="Q4">
-        <v>105.017</v>
+        <v>-79.263999999999996</v>
       </c>
       <c r="R4">
-        <v>40662</v>
+        <v>37106</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4219.6559999999999</v>
+        <v>916.03</v>
       </c>
       <c r="U4">
-        <v>602.46299999999997</v>
+        <v>81.63</v>
       </c>
       <c r="V4">
-        <v>223.572</v>
+        <v>-30.219000000000001</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-10.637</v>
       </c>
       <c r="X4">
-        <v>-26.963999999999999</v>
+        <v>-10.859</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>156.96899999999999</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40753</v>
+        <v>37197</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>146.042</v>
+        <v>46.737000000000002</v>
       </c>
       <c r="D5">
-        <v>3575.194</v>
+        <v>1309.125</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1148.3420000000001</v>
+        <v>381.18099999999998</v>
       </c>
       <c r="G5">
-        <v>2272.7809999999999</v>
+        <v>1346.941</v>
       </c>
       <c r="H5">
-        <v>9529.1029999999992</v>
+        <v>2469.2660000000001</v>
       </c>
       <c r="I5">
-        <v>1122.9490000000001</v>
+        <v>381.84300000000002</v>
       </c>
       <c r="J5">
-        <v>2788.3440000000001</v>
+        <v>347.17399999999998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1526.951</v>
+        <v>1168.932</v>
       </c>
       <c r="O5">
-        <v>5155.5389999999998</v>
+        <v>1516.106</v>
       </c>
       <c r="P5">
-        <v>2800.4630000000002</v>
+        <v>738.26300000000003</v>
       </c>
       <c r="Q5">
-        <v>-489.41300000000001</v>
+        <v>-6.8109999999999999</v>
       </c>
       <c r="R5">
-        <v>40753</v>
+        <v>37197</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4373.5640000000003</v>
+        <v>953.16</v>
       </c>
       <c r="U5">
-        <v>113.05</v>
+        <v>74.819000000000003</v>
       </c>
       <c r="V5">
-        <v>174.86699999999999</v>
+        <v>31.928000000000001</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-10.641999999999999</v>
       </c>
       <c r="X5">
-        <v>-538.221</v>
+        <v>-12.583</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>146.042</v>
+        <v>46.737000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40844</v>
+        <v>37288</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>171.16399999999999</v>
+        <v>97.442999999999998</v>
       </c>
       <c r="D6">
-        <v>3595.2240000000002</v>
+        <v>1586.0119999999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1115.8019999999999</v>
+        <v>475.52300000000002</v>
       </c>
       <c r="G6">
-        <v>2392.855</v>
+        <v>1556.047</v>
       </c>
       <c r="H6">
-        <v>9735.8819999999996</v>
+        <v>2552.3850000000002</v>
       </c>
       <c r="I6">
-        <v>1132.5440000000001</v>
+        <v>322.46300000000002</v>
       </c>
       <c r="J6">
-        <v>2728.3339999999998</v>
+        <v>339.47</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1572.221</v>
+        <v>1133.5509999999999</v>
       </c>
       <c r="O6">
-        <v>5181.87</v>
+        <v>1510.6669999999999</v>
       </c>
       <c r="P6">
-        <v>2736.9389999999999</v>
+        <v>735.14499999999998</v>
       </c>
       <c r="Q6">
-        <v>5.53</v>
+        <v>186.70599999999999</v>
       </c>
       <c r="R6">
-        <v>40844</v>
+        <v>37288</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="T6">
-        <v>4554.0119999999997</v>
+        <v>1041.7180000000001</v>
       </c>
       <c r="U6">
-        <v>118.58</v>
+        <v>261.52499999999998</v>
       </c>
       <c r="V6">
-        <v>206.06</v>
+        <v>223.881</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-10.606999999999999</v>
       </c>
       <c r="X6">
-        <v>-55.81</v>
+        <v>-13.057</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>171.16399999999999</v>
+        <v>97.442999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40942</v>
+        <v>37379</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>292.51</v>
+        <v>45.927999999999997</v>
       </c>
       <c r="D7">
-        <v>4185.0730000000003</v>
+        <v>1389.412</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1346.3689999999999</v>
+        <v>380.29199999999997</v>
       </c>
       <c r="G7">
-        <v>2275.0740000000001</v>
+        <v>1588.2660000000001</v>
       </c>
       <c r="H7">
-        <v>9688.52</v>
+        <v>2588.732</v>
       </c>
       <c r="I7">
-        <v>1064.087</v>
+        <v>341.13400000000001</v>
       </c>
       <c r="J7">
-        <v>2613.3919999999998</v>
+        <v>336.08300000000003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-3.1960000000000002</v>
       </c>
       <c r="N7">
-        <v>1509.902</v>
+        <v>1110.6010000000001</v>
       </c>
       <c r="O7">
-        <v>5013.9380000000001</v>
+        <v>1500.0719999999999</v>
       </c>
       <c r="P7">
-        <v>2629.3009999999999</v>
+        <v>731.96</v>
       </c>
       <c r="Q7">
-        <v>7.5460000000000003</v>
+        <v>25.899000000000001</v>
       </c>
       <c r="R7">
-        <v>40942</v>
+        <v>37379</v>
       </c>
       <c r="S7">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>4674.5820000000003</v>
+        <v>1088.6600000000001</v>
       </c>
       <c r="U7">
-        <v>126.126</v>
+        <v>287.42399999999998</v>
       </c>
       <c r="V7">
-        <v>445.98099999999999</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-10.646000000000001</v>
       </c>
       <c r="X7">
-        <v>-286.97000000000003</v>
+        <v>-14.167</v>
       </c>
       <c r="Y7">
-        <v>4.4989999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>292.51</v>
+        <v>45.927999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41033</v>
+        <v>37470</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>213.41499999999999</v>
+        <v>42.362000000000002</v>
       </c>
       <c r="D8">
-        <v>3901.2049999999999</v>
+        <v>1453.7270000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1228.2560000000001</v>
+        <v>387.42700000000002</v>
       </c>
       <c r="G8">
-        <v>2273.7350000000001</v>
+        <v>1244.105</v>
       </c>
       <c r="H8">
-        <v>9770.2080000000005</v>
+        <v>2265.2289999999998</v>
       </c>
       <c r="I8">
-        <v>985.92399999999998</v>
+        <v>346.786</v>
       </c>
       <c r="J8">
-        <v>2880.92</v>
+        <v>506.70699999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,40 +1387,40 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-322.00200000000001</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1411.2529999999999</v>
+        <v>581.13800000000003</v>
       </c>
       <c r="O8">
-        <v>5178.7759999999998</v>
+        <v>1133.875</v>
       </c>
       <c r="P8">
-        <v>2888.143</v>
+        <v>521.83900000000006</v>
       </c>
       <c r="Q8">
-        <v>6.4039999999999999</v>
+        <v>-247.90700000000001</v>
       </c>
       <c r="R8">
-        <v>41033</v>
+        <v>37470</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4591.4319999999998</v>
+        <v>1131.354</v>
       </c>
       <c r="U8">
-        <v>132.53</v>
+        <v>39.517000000000003</v>
       </c>
       <c r="V8">
-        <v>192.63900000000001</v>
+        <v>5.7919999999999998</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-10.661</v>
       </c>
       <c r="X8">
-        <v>-40.497</v>
+        <v>-218.13499999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>213.41499999999999</v>
+        <v>42.362000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41124</v>
+        <v>37561</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>214.14</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="D9">
-        <v>3948.6550000000002</v>
+        <v>1497.702</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1263.223</v>
+        <v>428.58300000000003</v>
       </c>
       <c r="G9">
-        <v>2514.444</v>
+        <v>1390.393</v>
       </c>
       <c r="H9">
-        <v>10103.474</v>
+        <v>2411.1640000000002</v>
       </c>
       <c r="I9">
-        <v>1143.857</v>
+        <v>410.42599999999999</v>
       </c>
       <c r="J9">
-        <v>2892.627</v>
+        <v>502.49799999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1526.683</v>
+        <v>673.27499999999998</v>
       </c>
       <c r="O9">
-        <v>5293.0640000000003</v>
+        <v>1220.8130000000001</v>
       </c>
       <c r="P9">
-        <v>2896.0880000000002</v>
+        <v>518.33199999999999</v>
       </c>
       <c r="Q9">
-        <v>1.627</v>
+        <v>-2.4159999999999999</v>
       </c>
       <c r="R9">
-        <v>41124</v>
+        <v>37561</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4810.41</v>
+        <v>1190.3510000000001</v>
       </c>
       <c r="U9">
-        <v>134.15700000000001</v>
+        <v>37.100999999999999</v>
       </c>
       <c r="V9">
-        <v>180.85300000000001</v>
+        <v>47.387999999999998</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-10.664999999999999</v>
       </c>
       <c r="X9">
-        <v>-21.402000000000001</v>
+        <v>-15.773999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>214.14</v>
+        <v>68.569999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41215</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>207.685</v>
+        <v>108.086</v>
       </c>
       <c r="D10">
-        <v>3964.6469999999999</v>
+        <v>1759.5630000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1226.123</v>
+        <v>527.96400000000006</v>
       </c>
       <c r="G10">
-        <v>2618.192</v>
+        <v>1323.9079999999999</v>
       </c>
       <c r="H10">
-        <v>10273.677</v>
+        <v>2333.1529999999998</v>
       </c>
       <c r="I10">
-        <v>1199.7270000000001</v>
+        <v>341.303</v>
       </c>
       <c r="J10">
-        <v>3022.3049999999998</v>
+        <v>330.33699999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1633.8389999999999</v>
+        <v>664.50099999999998</v>
       </c>
       <c r="O10">
-        <v>5538.8149999999996</v>
+        <v>1045.085</v>
       </c>
       <c r="P10">
-        <v>3031.8249999999998</v>
+        <v>346.54599999999999</v>
       </c>
       <c r="Q10">
-        <v>8.423</v>
+        <v>84.216999999999999</v>
       </c>
       <c r="R10">
-        <v>41215</v>
+        <v>37652</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>53500</v>
       </c>
       <c r="T10">
-        <v>4734.8620000000001</v>
+        <v>1288.068</v>
       </c>
       <c r="U10">
-        <v>142.58000000000001</v>
+        <v>121.318</v>
       </c>
       <c r="V10">
-        <v>317.39400000000001</v>
+        <v>306.04000000000002</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-10.666</v>
       </c>
       <c r="X10">
-        <v>-160.05099999999999</v>
+        <v>-192.33699999999999</v>
       </c>
       <c r="Y10">
-        <v>7.0720000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>207.685</v>
+        <v>108.086</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41306</v>
+        <v>37743</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>317.42200000000003</v>
+        <v>60.332000000000001</v>
       </c>
       <c r="D11">
-        <v>4207.6210000000001</v>
+        <v>1569.0640000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1367.799</v>
+        <v>451.90600000000001</v>
       </c>
       <c r="G11">
-        <v>2677.1129999999998</v>
+        <v>1355.3910000000001</v>
       </c>
       <c r="H11">
-        <v>10367.682000000001</v>
+        <v>2355.9670000000001</v>
       </c>
       <c r="I11">
-        <v>1261.607</v>
+        <v>357.22399999999999</v>
       </c>
       <c r="J11">
-        <v>2776.1579999999999</v>
+        <v>326.02800000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-4.0860000000000003</v>
       </c>
       <c r="N11">
-        <v>1738.547</v>
+        <v>640.60799999999995</v>
       </c>
       <c r="O11">
-        <v>5382.3519999999999</v>
+        <v>1018.22</v>
       </c>
       <c r="P11">
-        <v>2777.05</v>
+        <v>342.58800000000002</v>
       </c>
       <c r="Q11">
-        <v>-1.7709999999999999</v>
+        <v>-45.372</v>
       </c>
       <c r="R11">
-        <v>41306</v>
+        <v>37743</v>
       </c>
       <c r="S11">
-        <v>90500</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>4985.33</v>
+        <v>1337.7470000000001</v>
       </c>
       <c r="U11">
-        <v>140.809</v>
+        <v>75.945999999999998</v>
       </c>
       <c r="V11">
-        <v>440.46600000000001</v>
+        <v>-0.308</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-11.673</v>
       </c>
       <c r="X11">
-        <v>-324.88299999999998</v>
+        <v>-15.000999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>317.42200000000003</v>
+        <v>60.332000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41397</v>
+        <v>37834</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>220.083</v>
+        <v>59.936</v>
       </c>
       <c r="D12">
-        <v>4233.7330000000002</v>
+        <v>1651.0940000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1295.1479999999999</v>
+        <v>472.83</v>
       </c>
       <c r="G12">
-        <v>2724.4760000000001</v>
+        <v>1367.308</v>
       </c>
       <c r="H12">
-        <v>10493.697</v>
+        <v>2365.3809999999999</v>
       </c>
       <c r="I12">
-        <v>1138.395</v>
+        <v>352.71699999999998</v>
       </c>
       <c r="J12">
-        <v>2834.78</v>
+        <v>272.42</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-2728.116</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1600.402</v>
+        <v>633.88300000000004</v>
       </c>
       <c r="O12">
-        <v>5314.7979999999998</v>
+        <v>963.23599999999999</v>
       </c>
       <c r="P12">
-        <v>2842.2959999999998</v>
+        <v>289.37700000000001</v>
       </c>
       <c r="Q12">
-        <v>14.717000000000001</v>
+        <v>26.33</v>
       </c>
       <c r="R12">
-        <v>41397</v>
+        <v>37834</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>5178.8990000000003</v>
+        <v>1402.145</v>
       </c>
       <c r="U12">
-        <v>155.52600000000001</v>
+        <v>102.276</v>
       </c>
       <c r="V12">
-        <v>147.226</v>
+        <v>112.078</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-11.701000000000001</v>
       </c>
       <c r="X12">
-        <v>17.068000000000001</v>
+        <v>-2.391</v>
       </c>
       <c r="Y12">
-        <v>6.6070000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>220.083</v>
+        <v>59.936</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41488</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>245.47499999999999</v>
+        <v>77.903000000000006</v>
       </c>
       <c r="D13">
-        <v>4394.6509999999998</v>
+        <v>1685.346</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1377.29</v>
+        <v>516.89700000000005</v>
       </c>
       <c r="G13">
-        <v>2864.7429999999999</v>
+        <v>1598.7</v>
       </c>
       <c r="H13">
-        <v>10699.63</v>
+        <v>2589.194</v>
       </c>
       <c r="I13">
-        <v>1254.856</v>
+        <v>440.505</v>
       </c>
       <c r="J13">
-        <v>2849.549</v>
+        <v>268.35700000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1740.19</v>
+        <v>760.077</v>
       </c>
       <c r="O13">
-        <v>5468.1540000000005</v>
+        <v>1087.5340000000001</v>
       </c>
       <c r="P13">
-        <v>2875.4760000000001</v>
+        <v>285.65199999999999</v>
       </c>
       <c r="Q13">
-        <v>13.694000000000001</v>
+        <v>36.194000000000003</v>
       </c>
       <c r="R13">
-        <v>41488</v>
+        <v>37925</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>5231.4759999999997</v>
+        <v>1501.66</v>
       </c>
       <c r="U13">
-        <v>169.22</v>
+        <v>138.47</v>
       </c>
       <c r="V13">
-        <v>336.88900000000001</v>
+        <v>55.225000000000001</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-11.762</v>
       </c>
       <c r="X13">
-        <v>-164.50399999999999</v>
+        <v>9.9710000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>245.47499999999999</v>
+        <v>77.903000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41579</v>
+        <v>38016</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>237.38499999999999</v>
+        <v>100.831</v>
       </c>
       <c r="D14">
-        <v>4381.8379999999997</v>
+        <v>1966.4880000000001</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1328.4929999999999</v>
+        <v>576.49599999999998</v>
       </c>
       <c r="G14">
-        <v>2904.3020000000001</v>
+        <v>1652.2149999999999</v>
       </c>
       <c r="H14">
-        <v>10775.974</v>
+        <v>2621.1170000000002</v>
       </c>
       <c r="I14">
-        <v>1251.394</v>
+        <v>383.791</v>
       </c>
       <c r="J14">
-        <v>2878.442</v>
+        <v>265.33699999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1753.049</v>
+        <v>749.34199999999998</v>
       </c>
       <c r="O14">
-        <v>5501.02</v>
+        <v>1066.818</v>
       </c>
       <c r="P14">
-        <v>2929.3870000000002</v>
+        <v>282.00700000000001</v>
       </c>
       <c r="Q14">
-        <v>-3.5030000000000001</v>
+        <v>196.96299999999999</v>
       </c>
       <c r="R14">
-        <v>41579</v>
+        <v>38016</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>57800</v>
       </c>
       <c r="T14">
-        <v>5274.9539999999997</v>
+        <v>1554.299</v>
       </c>
       <c r="U14">
-        <v>165.71700000000001</v>
+        <v>345.899</v>
       </c>
       <c r="V14">
-        <v>276.45999999999998</v>
+        <v>346.71600000000001</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-11.747</v>
       </c>
       <c r="X14">
-        <v>-145.203</v>
+        <v>-35.497999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-67.224999999999994</v>
       </c>
       <c r="AA14">
-        <v>237.38499999999999</v>
+        <v>100.831</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41670</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>322.173</v>
+        <v>67.849000000000004</v>
       </c>
       <c r="D15">
-        <v>4493.9449999999997</v>
+        <v>1747.9590000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1434.8109999999999</v>
+        <v>512.25</v>
       </c>
       <c r="G15">
-        <v>3205.607</v>
+        <v>1629.6579999999999</v>
       </c>
       <c r="H15">
-        <v>10867.523999999999</v>
+        <v>2673.7689999999998</v>
       </c>
       <c r="I15">
-        <v>1286.4839999999999</v>
+        <v>510.18700000000001</v>
       </c>
       <c r="J15">
-        <v>2746.8969999999999</v>
+        <v>261.62099999999998</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-4.0629999999999997</v>
       </c>
       <c r="N15">
-        <v>1811.971</v>
+        <v>853.41700000000003</v>
       </c>
       <c r="O15">
-        <v>5465.3310000000001</v>
+        <v>1185.6859999999999</v>
       </c>
       <c r="P15">
-        <v>2822.8629999999998</v>
+        <v>278.50099999999998</v>
       </c>
       <c r="Q15">
-        <v>339.84899999999999</v>
+        <v>-139.19999999999999</v>
       </c>
       <c r="R15">
-        <v>41670</v>
+        <v>38107</v>
       </c>
       <c r="S15">
-        <v>100600</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>5402.1930000000002</v>
+        <v>1488.0830000000001</v>
       </c>
       <c r="U15">
-        <v>505.56599999999997</v>
+        <v>256.88299999999998</v>
       </c>
       <c r="V15">
-        <v>452.49</v>
+        <v>68.376999999999995</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-13.319000000000001</v>
       </c>
       <c r="X15">
-        <v>-305.69099999999997</v>
+        <v>-143.97800000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-2.9249999999999998</v>
       </c>
       <c r="AA15">
-        <v>322.173</v>
+        <v>67.849000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41761</v>
+        <v>38198</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>222.398</v>
+        <v>71.322000000000003</v>
       </c>
       <c r="D16">
-        <v>4522.0810000000001</v>
+        <v>1836.2429999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1357.7460000000001</v>
+        <v>536.98</v>
       </c>
       <c r="G16">
-        <v>2943.346</v>
+        <v>1586.6420000000001</v>
       </c>
       <c r="H16">
-        <v>10601.884</v>
+        <v>2655.0050000000001</v>
       </c>
       <c r="I16">
-        <v>1222.68</v>
+        <v>440.48500000000001</v>
       </c>
       <c r="J16">
-        <v>3010.1770000000001</v>
+        <v>259.00900000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2051,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-142.434</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1863.318</v>
+        <v>780.86900000000003</v>
       </c>
       <c r="O16">
-        <v>5769.6570000000002</v>
+        <v>1116.1289999999999</v>
       </c>
       <c r="P16">
-        <v>3111.1660000000002</v>
+        <v>274.96499999999997</v>
       </c>
       <c r="Q16">
-        <v>-339.23599999999999</v>
+        <v>-74.093000000000004</v>
       </c>
       <c r="R16">
-        <v>41761</v>
+        <v>38198</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4832.2269999999999</v>
+        <v>1538.876</v>
       </c>
       <c r="U16">
-        <v>166.33</v>
+        <v>101.465</v>
       </c>
       <c r="V16">
-        <v>251.46</v>
+        <v>-13.789</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-13.129</v>
       </c>
       <c r="X16">
-        <v>-506.71100000000001</v>
+        <v>-46.965000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>60.35</v>
       </c>
       <c r="AA16">
-        <v>222.398</v>
+        <v>71.322000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41852</v>
+        <v>38289</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>251.26</v>
+        <v>71.126000000000005</v>
       </c>
       <c r="D17">
-        <v>4724.0389999999998</v>
+        <v>1879.1869999999999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1455.5740000000001</v>
+        <v>553.98500000000001</v>
       </c>
       <c r="G17">
-        <v>3140.6309999999999</v>
+        <v>1722.2339999999999</v>
       </c>
       <c r="H17">
-        <v>10825.794</v>
+        <v>2828.0169999999998</v>
       </c>
       <c r="I17">
-        <v>1395.78</v>
+        <v>475.84100000000001</v>
       </c>
       <c r="J17">
-        <v>2881.2170000000001</v>
+        <v>321.19400000000002</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1969.4179999999999</v>
+        <v>848.65899999999999</v>
       </c>
       <c r="O17">
-        <v>5729.8010000000004</v>
+        <v>1250.527</v>
       </c>
       <c r="P17">
-        <v>2985.1770000000001</v>
+        <v>335.89800000000002</v>
       </c>
       <c r="Q17">
-        <v>6.1440000000000001</v>
+        <v>-41.512</v>
       </c>
       <c r="R17">
-        <v>41852</v>
+        <v>38289</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5095.9930000000004</v>
+        <v>1577.49</v>
       </c>
       <c r="U17">
-        <v>172.47399999999999</v>
+        <v>45.832000000000001</v>
       </c>
       <c r="V17">
-        <v>235.464</v>
+        <v>7.6289999999999996</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-13.116</v>
       </c>
       <c r="X17">
-        <v>-122.583</v>
+        <v>25.718</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>9.8010000000000002</v>
       </c>
       <c r="AA17">
-        <v>251.26</v>
+        <v>71.126000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41943</v>
+        <v>38380</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>236.316</v>
+        <v>133.893</v>
       </c>
       <c r="D18">
-        <v>4724.4089999999997</v>
+        <v>2197.538</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1423.748</v>
+        <v>659.97699999999998</v>
       </c>
       <c r="G18">
-        <v>3179.1320000000001</v>
+        <v>1730.902</v>
       </c>
       <c r="H18">
-        <v>10877.371999999999</v>
+        <v>2841.0039999999999</v>
       </c>
       <c r="I18">
-        <v>1394.873</v>
+        <v>409.327</v>
       </c>
       <c r="J18">
-        <v>2666.0219999999999</v>
+        <v>258.46199999999999</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2010.846</v>
+        <v>825.69200000000001</v>
       </c>
       <c r="O18">
-        <v>5533.7349999999997</v>
+        <v>1156.539</v>
       </c>
       <c r="P18">
-        <v>2769.2579999999998</v>
+        <v>271.322</v>
       </c>
       <c r="Q18">
-        <v>43.680999999999997</v>
+        <v>141.73599999999999</v>
       </c>
       <c r="R18">
-        <v>41943</v>
+        <v>38380</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>63200</v>
       </c>
       <c r="T18">
-        <v>5343.6369999999997</v>
+        <v>1684.4649999999999</v>
       </c>
       <c r="U18">
-        <v>216.155</v>
+        <v>232.83</v>
       </c>
       <c r="V18">
-        <v>353.62299999999999</v>
+        <v>329.298</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-13.118</v>
       </c>
       <c r="X18">
-        <v>-213.715</v>
+        <v>-80.19</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-41.424999999999997</v>
       </c>
       <c r="AA18">
-        <v>236.316</v>
+        <v>133.893</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42034</v>
+        <v>38471</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>355.37099999999998</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D19">
-        <v>4939.0590000000002</v>
+        <v>1977.829</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1565.4390000000001</v>
+        <v>563.34900000000005</v>
       </c>
       <c r="G19">
-        <v>3532.6089999999999</v>
+        <v>1783.1949999999999</v>
       </c>
       <c r="H19">
-        <v>11208.642</v>
+        <v>2904.538</v>
       </c>
       <c r="I19">
-        <v>1388.154</v>
+        <v>459.74200000000002</v>
       </c>
       <c r="J19">
-        <v>2623.9650000000001</v>
+        <v>256.452</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-4.7220000000000004</v>
       </c>
       <c r="N19">
-        <v>1962.472</v>
+        <v>847.77800000000002</v>
       </c>
       <c r="O19">
-        <v>5498.6040000000003</v>
+        <v>1176.5719999999999</v>
       </c>
       <c r="P19">
-        <v>2725.123</v>
+        <v>267.18900000000002</v>
       </c>
       <c r="Q19">
-        <v>363.66800000000001</v>
+        <v>3.6930000000000001</v>
       </c>
       <c r="R19">
-        <v>42034</v>
+        <v>38471</v>
       </c>
       <c r="S19">
-        <v>105500</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>5710.0379999999996</v>
+        <v>1727.9659999999999</v>
       </c>
       <c r="U19">
-        <v>579.82299999999998</v>
+        <v>236.523</v>
       </c>
       <c r="V19">
-        <v>474.197</v>
+        <v>55.12</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-13.145</v>
       </c>
       <c r="X19">
-        <v>-25.779</v>
+        <v>-29.413</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>42.924999999999997</v>
       </c>
       <c r="AA19">
-        <v>355.37099999999998</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42125</v>
+        <v>38562</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>253.23500000000001</v>
+        <v>75.558000000000007</v>
       </c>
       <c r="D20">
-        <v>4918.6719999999996</v>
+        <v>2066.0160000000001</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1498.7049999999999</v>
+        <v>591.53</v>
       </c>
       <c r="G20">
-        <v>3244.9</v>
+        <v>1698.663</v>
       </c>
       <c r="H20">
-        <v>10956.55</v>
+        <v>2840.366</v>
       </c>
       <c r="I20">
-        <v>1435.367</v>
+        <v>462.697</v>
       </c>
       <c r="J20">
-        <v>2614.0050000000001</v>
+        <v>255.44499999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,40 +2383,40 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-38.345999999999997</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2072.9389999999999</v>
+        <v>869.36800000000005</v>
       </c>
       <c r="O20">
-        <v>5570.692</v>
+        <v>1192.549</v>
       </c>
       <c r="P20">
-        <v>2715.5770000000002</v>
+        <v>265.00599999999997</v>
       </c>
       <c r="Q20">
-        <v>-354.70699999999999</v>
+        <v>-90.572999999999993</v>
       </c>
       <c r="R20">
-        <v>42125</v>
+        <v>38562</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5385.8580000000002</v>
+        <v>1647.817</v>
       </c>
       <c r="U20">
-        <v>225.11600000000001</v>
+        <v>145.94999999999999</v>
       </c>
       <c r="V20">
-        <v>370.21</v>
+        <v>143.89599999999999</v>
       </c>
       <c r="W20">
-        <v>-66.037000000000006</v>
+        <v>-14.451000000000001</v>
       </c>
       <c r="X20">
-        <v>-625.15099999999995</v>
+        <v>-160.636</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>253.23500000000001</v>
+        <v>75.558000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42216</v>
+        <v>38653</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>282.34899999999999</v>
+        <v>64.424999999999997</v>
       </c>
       <c r="D21">
-        <v>5095.9040000000005</v>
+        <v>2057.8879999999999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1588.155</v>
+        <v>579.01599999999996</v>
       </c>
       <c r="G21">
-        <v>3424.8470000000002</v>
+        <v>1744.65</v>
       </c>
       <c r="H21">
-        <v>11195.195</v>
+        <v>2930.7809999999999</v>
       </c>
       <c r="I21">
-        <v>1536.61</v>
+        <v>521.08699999999999</v>
       </c>
       <c r="J21">
-        <v>2761.7939999999999</v>
+        <v>344.43599999999998</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2154.7629999999999</v>
+        <v>909.94</v>
       </c>
       <c r="O21">
-        <v>5776.2610000000004</v>
+        <v>1316.4939999999999</v>
       </c>
       <c r="P21">
-        <v>2863.1289999999999</v>
+        <v>353.3</v>
       </c>
       <c r="Q21">
-        <v>-44.591000000000001</v>
+        <v>-53.180999999999997</v>
       </c>
       <c r="R21">
-        <v>42216</v>
+        <v>38653</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5418.9340000000002</v>
+        <v>1614.287</v>
       </c>
       <c r="U21">
-        <v>180.52500000000001</v>
+        <v>92.769000000000005</v>
       </c>
       <c r="V21">
-        <v>214.77099999999999</v>
+        <v>35.701000000000001</v>
       </c>
       <c r="W21">
-        <v>-65.167000000000002</v>
+        <v>-14.403</v>
       </c>
       <c r="X21">
-        <v>-112.334</v>
+        <v>-11.89</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>282.34899999999999</v>
+        <v>64.424999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42307</v>
+        <v>38751</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>253.321</v>
+        <v>145.27199999999999</v>
       </c>
       <c r="D22">
-        <v>5067.0479999999998</v>
+        <v>2480.5039999999999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1536.962</v>
+        <v>837.42899999999997</v>
       </c>
       <c r="G22">
-        <v>3488.7750000000001</v>
+        <v>1735.212</v>
       </c>
       <c r="H22">
-        <v>11288.293</v>
+        <v>2980.2750000000001</v>
       </c>
       <c r="I22">
-        <v>1470.107</v>
+        <v>508.38600000000002</v>
       </c>
       <c r="J22">
-        <v>3101.3879999999999</v>
+        <v>269.96199999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1991.5830000000001</v>
+        <v>810.49800000000005</v>
       </c>
       <c r="O22">
-        <v>5944.7</v>
+        <v>1259.48</v>
       </c>
       <c r="P22">
-        <v>3106.69</v>
+        <v>278.74700000000001</v>
       </c>
       <c r="Q22">
-        <v>1.9890000000000001</v>
+        <v>107.84</v>
       </c>
       <c r="R22">
-        <v>42307</v>
+        <v>38751</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>64500</v>
       </c>
       <c r="T22">
-        <v>5343.5929999999998</v>
+        <v>1720.7950000000001</v>
       </c>
       <c r="U22">
-        <v>182.51400000000001</v>
+        <v>200.60900000000001</v>
       </c>
       <c r="V22">
-        <v>224.131</v>
+        <v>320.76799999999997</v>
       </c>
       <c r="W22">
-        <v>-63.965000000000003</v>
+        <v>-14.183999999999999</v>
       </c>
       <c r="X22">
-        <v>-82.863</v>
+        <v>-121.364</v>
       </c>
       <c r="Y22">
-        <v>3.944</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-25.844999999999999</v>
       </c>
       <c r="AA22">
-        <v>253.321</v>
+        <v>145.27199999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42398</v>
+        <v>38842</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>376.17500000000001</v>
+        <v>47.67</v>
       </c>
       <c r="D23">
-        <v>5286.9380000000001</v>
+        <v>2151.3870000000002</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1682.269</v>
+        <v>584.274</v>
       </c>
       <c r="G23">
-        <v>3432.41</v>
+        <v>1808.7550000000001</v>
       </c>
       <c r="H23">
-        <v>11257.885</v>
+        <v>3063.4670000000001</v>
       </c>
       <c r="I23">
-        <v>1494.2249999999999</v>
+        <v>569.447</v>
       </c>
       <c r="J23">
-        <v>2969.1750000000002</v>
+        <v>333.471</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-51.5</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-2.3639999999999999</v>
       </c>
       <c r="N23">
-        <v>1995.596</v>
+        <v>979.49199999999996</v>
       </c>
       <c r="O23">
-        <v>5880.009</v>
+        <v>1376.653</v>
       </c>
       <c r="P23">
-        <v>2970.5540000000001</v>
+        <v>342.27100000000002</v>
       </c>
       <c r="Q23">
-        <v>-24.567</v>
+        <v>-128.733</v>
       </c>
       <c r="R23">
-        <v>42398</v>
+        <v>38842</v>
       </c>
       <c r="S23">
-        <v>113400</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>5377.8760000000002</v>
+        <v>1686.8140000000001</v>
       </c>
       <c r="U23">
-        <v>157.947</v>
+        <v>71.876000000000005</v>
       </c>
       <c r="V23">
-        <v>582.57399999999996</v>
+        <v>-16.116</v>
       </c>
       <c r="W23">
-        <v>-63.158999999999999</v>
+        <v>-15.686</v>
       </c>
       <c r="X23">
-        <v>-489.83100000000002</v>
+        <v>-20.533000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-15.285</v>
       </c>
       <c r="AA23">
-        <v>376.17500000000001</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42489</v>
+        <v>38933</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>295.12400000000002</v>
+        <v>45.468000000000004</v>
       </c>
       <c r="D24">
-        <v>5265.4319999999998</v>
+        <v>2251.0529999999999</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1612.614</v>
+        <v>611.53399999999999</v>
       </c>
       <c r="G24">
-        <v>3477.346</v>
+        <v>1953.88</v>
       </c>
       <c r="H24">
-        <v>11316.384</v>
+        <v>3245.1970000000001</v>
       </c>
       <c r="I24">
-        <v>1447.223</v>
+        <v>538.04600000000005</v>
       </c>
       <c r="J24">
-        <v>2989.663</v>
+        <v>516.53700000000003</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,81 +2715,81 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-731.49699999999996</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2011.5940000000001</v>
+        <v>944.65200000000004</v>
       </c>
       <c r="O24">
-        <v>5928.0010000000002</v>
+        <v>1523.72</v>
       </c>
       <c r="P24">
-        <v>2991.1889999999999</v>
+        <v>525.70399999999995</v>
       </c>
       <c r="Q24">
-        <v>29.74</v>
+        <v>14.476000000000001</v>
       </c>
       <c r="R24">
-        <v>42489</v>
+        <v>38933</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5388.3829999999998</v>
+        <v>1721.4770000000001</v>
       </c>
       <c r="U24">
-        <v>187.68700000000001</v>
+        <v>86.352000000000004</v>
       </c>
       <c r="V24">
-        <v>403.95299999999997</v>
+        <v>-70.022000000000006</v>
       </c>
       <c r="W24">
-        <v>-71.308000000000007</v>
+        <v>-15.597</v>
       </c>
       <c r="X24">
-        <v>-275.56799999999998</v>
+        <v>168.916</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-7.3890000000000002</v>
       </c>
       <c r="AA24">
-        <v>295.12400000000002</v>
+        <v>45.468000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42580</v>
+        <v>39024</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>306.51799999999997</v>
+        <v>-5.2850000000000001</v>
       </c>
       <c r="D25">
-        <v>5391.8909999999996</v>
+        <v>2213.3960000000002</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1681.7670000000001</v>
+        <v>597.74699999999996</v>
       </c>
       <c r="G25">
-        <v>3708.0509999999999</v>
+        <v>1917.991</v>
       </c>
       <c r="H25">
-        <v>11617.37</v>
+        <v>3206.3029999999999</v>
       </c>
       <c r="I25">
-        <v>1720.7719999999999</v>
+        <v>517.44299999999998</v>
       </c>
       <c r="J25">
-        <v>2556.4639999999999</v>
+        <v>495.339</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2719.4059999999999</v>
+        <v>948.50300000000004</v>
       </c>
       <c r="O25">
-        <v>6204.009</v>
+        <v>1503.3620000000001</v>
       </c>
       <c r="P25">
-        <v>3058.0120000000002</v>
+        <v>503.81200000000001</v>
       </c>
       <c r="Q25">
-        <v>-2.6539999999999999</v>
+        <v>4.5620000000000003</v>
       </c>
       <c r="R25">
-        <v>42580</v>
+        <v>39024</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5413.3609999999999</v>
+        <v>1702.941</v>
       </c>
       <c r="U25">
-        <v>185.03299999999999</v>
+        <v>90.914000000000001</v>
       </c>
       <c r="V25">
-        <v>389.38099999999997</v>
+        <v>105.898</v>
       </c>
       <c r="W25">
-        <v>-70.852999999999994</v>
+        <v>-15.581</v>
       </c>
       <c r="X25">
-        <v>-225.29400000000001</v>
+        <v>-38.484999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="AA25">
-        <v>306.51799999999997</v>
+        <v>-5.2850000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42671</v>
+        <v>39115</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>235.315</v>
+        <v>50.09</v>
       </c>
       <c r="D26">
-        <v>5320.0290000000005</v>
+        <v>2553.9859999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1587.51</v>
+        <v>853.75</v>
       </c>
       <c r="G26">
-        <v>3968.5120000000002</v>
+        <v>1742.748</v>
       </c>
       <c r="H26">
-        <v>11917.075999999999</v>
+        <v>3040.5140000000001</v>
       </c>
       <c r="I26">
-        <v>1948.1110000000001</v>
+        <v>555.274</v>
       </c>
       <c r="J26">
-        <v>2673.21</v>
+        <v>261.95800000000003</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2959.739</v>
+        <v>832.87099999999998</v>
       </c>
       <c r="O26">
-        <v>6555.2240000000002</v>
+        <v>1294.7670000000001</v>
       </c>
       <c r="P26">
-        <v>3174.69</v>
+        <v>270.03800000000001</v>
       </c>
       <c r="Q26">
-        <v>15.202999999999999</v>
+        <v>98.373999999999995</v>
       </c>
       <c r="R26">
-        <v>42671</v>
+        <v>39115</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>69500</v>
       </c>
       <c r="T26">
-        <v>5361.8519999999999</v>
+        <v>1745.7470000000001</v>
       </c>
       <c r="U26">
-        <v>200.23599999999999</v>
+        <v>189.28800000000001</v>
       </c>
       <c r="V26">
-        <v>331.08</v>
+        <v>385.59699999999998</v>
       </c>
       <c r="W26">
-        <v>-70.087999999999994</v>
+        <v>-15.608000000000001</v>
       </c>
       <c r="X26">
-        <v>-179.697</v>
+        <v>-244.61199999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-2.4649999999999999</v>
       </c>
       <c r="AA26">
-        <v>235.315</v>
+        <v>50.09</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42769</v>
+        <v>39206</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>414.17599999999999</v>
+        <v>34.875</v>
       </c>
       <c r="D27">
-        <v>6009.2460000000001</v>
+        <v>2275.2669999999998</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1900.7470000000001</v>
+        <v>633.05999999999995</v>
       </c>
       <c r="G27">
-        <v>3677.7710000000002</v>
+        <v>1786.1569999999999</v>
       </c>
       <c r="H27">
-        <v>11672.298000000001</v>
+        <v>3074.3090000000002</v>
       </c>
       <c r="I27">
-        <v>1557.596</v>
+        <v>484.94900000000001</v>
       </c>
       <c r="J27">
-        <v>2710.576</v>
+        <v>260.37299999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,164 +2964,164 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-2.653</v>
       </c>
       <c r="N27">
-        <v>2622.8049999999998</v>
+        <v>750.27300000000002</v>
       </c>
       <c r="O27">
-        <v>6266.0039999999999</v>
+        <v>1277.5319999999999</v>
       </c>
       <c r="P27">
-        <v>3211.5259999999998</v>
+        <v>267.55900000000003</v>
       </c>
       <c r="Q27">
-        <v>-12.321</v>
+        <v>15.129</v>
       </c>
       <c r="R27">
-        <v>42769</v>
+        <v>39206</v>
       </c>
       <c r="S27">
-        <v>121000</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>5406.2939999999999</v>
+        <v>1796.777</v>
       </c>
       <c r="U27">
-        <v>187.91499999999999</v>
+        <v>204.417</v>
       </c>
       <c r="V27">
-        <v>480.62700000000001</v>
+        <v>29.286000000000001</v>
       </c>
       <c r="W27">
-        <v>-68.885999999999996</v>
+        <v>-15.712</v>
       </c>
       <c r="X27">
-        <v>-343.57799999999997</v>
+        <v>19.445</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AA27">
-        <v>414.17599999999999</v>
+        <v>33.645000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42860</v>
+        <v>39297</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>279.48899999999998</v>
+        <v>-70.048000000000002</v>
       </c>
       <c r="D28">
-        <v>5609.625</v>
+        <v>2347.5639999999999</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1698.9829999999999</v>
+        <v>623.23800000000006</v>
       </c>
       <c r="G28">
-        <v>3748.9490000000001</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>11796.355</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1622.7760000000001</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>2629.509</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-22.8</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>-750.27499999999998</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>2692.0410000000002</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>6267.4740000000002</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>3033.2779999999998</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>18.062000000000001</v>
+        <v>268.86799999999999</v>
       </c>
       <c r="R28">
-        <v>42860</v>
+        <v>39297</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5528.8810000000003</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>205.977</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>510.46199999999999</v>
+        <v>113.017</v>
       </c>
       <c r="W28">
-        <v>-71.293999999999997</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-349.012</v>
+        <v>6928.4009999999998</v>
       </c>
       <c r="Y28">
-        <v>2.581</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-15.340999999999999</v>
       </c>
       <c r="AA28">
-        <v>279.48899999999998</v>
+        <v>-68.817999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42951</v>
+        <v>39388</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>294.78300000000002</v>
+        <v>-33.031999999999996</v>
       </c>
       <c r="D29">
-        <v>5828.3050000000003</v>
+        <v>2312.8420000000001</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1790.5219999999999</v>
+        <v>646.79999999999995</v>
       </c>
       <c r="G29">
-        <v>3979.991</v>
+        <v>1787.231</v>
       </c>
       <c r="H29">
-        <v>12120.824000000001</v>
+        <v>8931.7350000000006</v>
       </c>
       <c r="I29">
-        <v>1880.6679999999999</v>
+        <v>551.78599999999994</v>
       </c>
       <c r="J29">
-        <v>2683.105</v>
+        <v>4502.7879999999996</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2806.7550000000001</v>
+        <v>962.35699999999997</v>
       </c>
       <c r="O29">
-        <v>6433.7290000000003</v>
+        <v>6246.27</v>
       </c>
       <c r="P29">
-        <v>3084.5070000000001</v>
+        <v>4509.8109999999997</v>
       </c>
       <c r="Q29">
-        <v>8.1959999999999997</v>
+        <v>-33.131999999999998</v>
       </c>
       <c r="R29">
-        <v>42951</v>
+        <v>39388</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>67800</v>
       </c>
       <c r="T29">
-        <v>5687.0950000000003</v>
+        <v>2685.4650000000001</v>
       </c>
       <c r="U29">
-        <v>214.173</v>
+        <v>90.537999999999997</v>
       </c>
       <c r="V29">
-        <v>275.76799999999997</v>
+        <v>25.815000000000001</v>
       </c>
       <c r="W29">
-        <v>-71.045000000000002</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-97.253</v>
+        <v>17.045999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="AA29">
-        <v>294.78300000000002</v>
+        <v>-33.031999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43042</v>
+        <v>39479</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>252.53299999999999</v>
+        <v>55.389000000000003</v>
       </c>
       <c r="D30">
-        <v>5903.6059999999998</v>
+        <v>2559.5729999999999</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1766.4559999999999</v>
+        <v>740.37099999999998</v>
       </c>
       <c r="G30">
-        <v>4153.3339999999998</v>
+        <v>1517.7439999999999</v>
       </c>
       <c r="H30">
-        <v>12374.755999999999</v>
+        <v>8656.4310000000005</v>
       </c>
       <c r="I30">
-        <v>1978.0319999999999</v>
+        <v>551.04</v>
       </c>
       <c r="J30">
-        <v>2719.5680000000002</v>
+        <v>4361.0749999999998</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2937.806</v>
+        <v>858.24099999999999</v>
       </c>
       <c r="O30">
-        <v>6630.6009999999997</v>
+        <v>5952.558</v>
       </c>
       <c r="P30">
-        <v>3121.1</v>
+        <v>4364.3209999999999</v>
       </c>
       <c r="Q30">
-        <v>12.019</v>
+        <v>9.6709999999999994</v>
       </c>
       <c r="R30">
-        <v>43042</v>
+        <v>39479</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>71500</v>
       </c>
       <c r="T30">
-        <v>5744.1549999999997</v>
+        <v>2703.873</v>
       </c>
       <c r="U30">
-        <v>226.19200000000001</v>
+        <v>100.209</v>
       </c>
       <c r="V30">
-        <v>356.65</v>
+        <v>273.43200000000002</v>
       </c>
       <c r="W30">
-        <v>-70.594999999999999</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-170.727</v>
+        <v>-230.65</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>5.8639999999999999</v>
       </c>
       <c r="AA30">
-        <v>252.53299999999999</v>
+        <v>55.389000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43133</v>
+        <v>39570</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>712.15499999999997</v>
+        <v>5.9160000000000004</v>
       </c>
       <c r="D31">
-        <v>6129.4309999999996</v>
+        <v>2403.498</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1965.3979999999999</v>
+        <v>693.077</v>
       </c>
       <c r="G31">
-        <v>4247.8519999999999</v>
+        <v>1595.14</v>
       </c>
       <c r="H31">
-        <v>12516.911</v>
+        <v>8662.9989999999998</v>
       </c>
       <c r="I31">
-        <v>2009.771</v>
+        <v>592.07100000000003</v>
       </c>
       <c r="J31">
-        <v>2604.6129999999998</v>
+        <v>4176.1210000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,164 +3296,164 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-103.545</v>
       </c>
       <c r="N31">
-        <v>2964.8780000000002</v>
+        <v>954.74</v>
       </c>
       <c r="O31">
-        <v>6391.1369999999997</v>
+        <v>5932.3919999999998</v>
       </c>
       <c r="P31">
-        <v>3005.9580000000001</v>
+        <v>4178.951</v>
       </c>
       <c r="Q31">
-        <v>41.249000000000002</v>
+        <v>15.695</v>
       </c>
       <c r="R31">
-        <v>43133</v>
+        <v>39570</v>
       </c>
       <c r="S31">
-        <v>129000</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>6125.7740000000003</v>
+        <v>2730.607</v>
       </c>
       <c r="U31">
-        <v>267.44099999999997</v>
+        <v>115.904</v>
       </c>
       <c r="V31">
-        <v>659.22799999999995</v>
+        <v>151.56100000000001</v>
       </c>
       <c r="W31">
-        <v>-69.997</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-460.56200000000001</v>
+        <v>-103.66</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>3.073</v>
       </c>
       <c r="AA31">
-        <v>712.15499999999997</v>
+        <v>5.9160000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43224</v>
+        <v>39661</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>364.85199999999998</v>
+        <v>27.718</v>
       </c>
       <c r="D32">
-        <v>6114.4629999999997</v>
+        <v>2609.384</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1862.249</v>
+        <v>758.03499999999997</v>
       </c>
       <c r="G32">
-        <v>4166.0360000000001</v>
+        <v>1852.8009999999999</v>
       </c>
       <c r="H32">
-        <v>12493.23</v>
+        <v>8909.7900000000009</v>
       </c>
       <c r="I32">
-        <v>2018.32</v>
+        <v>818.24599999999998</v>
       </c>
       <c r="J32">
-        <v>2851.8690000000001</v>
+        <v>4177.6099999999997</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>-237.2</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-400.33</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>2525.3319999999999</v>
+        <v>1164.7170000000001</v>
       </c>
       <c r="O32">
-        <v>6256.9120000000003</v>
+        <v>6142.9870000000001</v>
       </c>
       <c r="P32">
-        <v>2864.386</v>
+        <v>4180.6090000000004</v>
       </c>
       <c r="Q32">
-        <v>16.529</v>
+        <v>145.726</v>
       </c>
       <c r="R32">
-        <v>43224</v>
+        <v>39661</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6236.3180000000002</v>
+        <v>2766.8029999999999</v>
       </c>
       <c r="U32">
-        <v>283.97000000000003</v>
+        <v>261.63</v>
       </c>
       <c r="V32">
-        <v>548.64800000000002</v>
+        <v>144.96299999999999</v>
       </c>
       <c r="W32">
-        <v>-77.656999999999996</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-368.12</v>
+        <v>-1.073</v>
       </c>
       <c r="Y32">
-        <v>10.628</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>45.973999999999997</v>
       </c>
       <c r="AA32">
-        <v>364.85199999999998</v>
+        <v>27.718</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43315</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>407.23700000000002</v>
+        <v>-7.306</v>
       </c>
       <c r="D33">
-        <v>6443.3090000000002</v>
+        <v>2598.9380000000001</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1974.873</v>
+        <v>772.28700000000003</v>
       </c>
       <c r="G33">
-        <v>4517.826</v>
+        <v>1886.297</v>
       </c>
       <c r="H33">
-        <v>12943.949000000001</v>
+        <v>8940.1010000000006</v>
       </c>
       <c r="I33">
-        <v>2294.9960000000001</v>
+        <v>720.12599999999998</v>
       </c>
       <c r="J33">
-        <v>2776.8110000000001</v>
+        <v>4172.4669999999996</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2915.5439999999999</v>
+        <v>1192.6569999999999</v>
       </c>
       <c r="O33">
-        <v>6565.0069999999996</v>
+        <v>6176.6369999999997</v>
       </c>
       <c r="P33">
-        <v>2778.72</v>
+        <v>4180.9219999999996</v>
       </c>
       <c r="Q33">
-        <v>-18.681999999999999</v>
+        <v>-111.04</v>
       </c>
       <c r="R33">
-        <v>43315</v>
+        <v>39752</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6378.942</v>
+        <v>2763.4639999999999</v>
       </c>
       <c r="U33">
-        <v>265.28800000000001</v>
+        <v>150.59</v>
       </c>
       <c r="V33">
-        <v>548.64099999999996</v>
+        <v>-35.381999999999998</v>
       </c>
       <c r="W33">
-        <v>-77.051000000000002</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-361.70299999999997</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2.597</v>
       </c>
       <c r="AA33">
-        <v>407.23700000000002</v>
+        <v>-7.306</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43406</v>
+        <v>39843</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>334.142</v>
+        <v>81.853999999999999</v>
       </c>
       <c r="D34">
-        <v>6417.4620000000004</v>
+        <v>2845.88</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1895.059</v>
+        <v>837.70100000000002</v>
       </c>
       <c r="G34">
-        <v>4630.3440000000001</v>
+        <v>1870.125</v>
       </c>
       <c r="H34">
-        <v>13121.021000000001</v>
+        <v>8889.1990000000005</v>
       </c>
       <c r="I34">
-        <v>2336.7719999999999</v>
+        <v>678.42100000000005</v>
       </c>
       <c r="J34">
-        <v>2902.4389999999999</v>
+        <v>4186.4790000000003</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2982.1819999999998</v>
+        <v>1075.2349999999999</v>
       </c>
       <c r="O34">
-        <v>6765.1329999999998</v>
+        <v>6057.5039999999999</v>
       </c>
       <c r="P34">
-        <v>2904.3679999999999</v>
+        <v>4200.6369999999997</v>
       </c>
       <c r="Q34">
-        <v>-4.5999999999999996</v>
+        <v>227.405</v>
       </c>
       <c r="R34">
-        <v>43406</v>
+        <v>39843</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="T34">
-        <v>6355.8879999999999</v>
+        <v>2831.6950000000002</v>
       </c>
       <c r="U34">
-        <v>260.68799999999999</v>
+        <v>377.995</v>
       </c>
       <c r="V34">
-        <v>416.82799999999997</v>
+        <v>314.036</v>
       </c>
       <c r="W34">
-        <v>-76.52</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-241.96600000000001</v>
+        <v>-41.088999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3587,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>334.142</v>
+        <v>81.872</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43497</v>
+        <v>39934</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>483.24099999999999</v>
+        <v>83.006</v>
       </c>
       <c r="D35">
-        <v>6649.8090000000002</v>
+        <v>2779.9369999999999</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>2071.6889999999999</v>
+        <v>855.35799999999995</v>
       </c>
       <c r="G35">
-        <v>4663.0200000000004</v>
+        <v>1962.1479999999999</v>
       </c>
       <c r="H35">
-        <v>13204.038</v>
+        <v>8978.8009999999995</v>
       </c>
       <c r="I35">
-        <v>2385.4690000000001</v>
+        <v>700.43799999999999</v>
       </c>
       <c r="J35">
-        <v>2862.74</v>
+        <v>4182.982</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,40 +3628,40 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.999</v>
       </c>
       <c r="N35">
-        <v>3015.857</v>
+        <v>1092.662</v>
       </c>
       <c r="O35">
-        <v>6786.6450000000004</v>
+        <v>6062.2160000000003</v>
       </c>
       <c r="P35">
-        <v>2864.69</v>
+        <v>4202.5079999999998</v>
       </c>
       <c r="Q35">
-        <v>-25.201000000000001</v>
+        <v>56.588999999999999</v>
       </c>
       <c r="R35">
-        <v>43497</v>
+        <v>39934</v>
       </c>
       <c r="S35">
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>6417.393</v>
+        <v>2916.585</v>
       </c>
       <c r="U35">
-        <v>235.48699999999999</v>
+        <v>434.584</v>
       </c>
       <c r="V35">
-        <v>629.43299999999999</v>
+        <v>108.893</v>
       </c>
       <c r="W35">
-        <v>-75.295000000000002</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-472.11200000000002</v>
+        <v>-0.63100000000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,122 +3670,122 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>483.24099999999999</v>
+        <v>83.006</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43588</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>385.01299999999998</v>
+        <v>93.59</v>
       </c>
       <c r="D36">
-        <v>6623.1850000000004</v>
+        <v>2901.9070000000002</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2002.2760000000001</v>
+        <v>906.04200000000003</v>
       </c>
       <c r="G36">
-        <v>4583.7690000000002</v>
+        <v>1906.048</v>
       </c>
       <c r="H36">
-        <v>21304.284</v>
+        <v>8900.2129999999997</v>
       </c>
       <c r="I36">
-        <v>2452.8980000000001</v>
+        <v>800.30799999999999</v>
       </c>
       <c r="J36">
-        <v>2732.105</v>
+        <v>4111.0230000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>-121.3</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-0.52500000000000002</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>3956.7159999999999</v>
+        <v>1165.4949999999999</v>
       </c>
       <c r="O36">
-        <v>14731.615</v>
+        <v>6123.076</v>
       </c>
       <c r="P36">
-        <v>10866.074000000001</v>
+        <v>4137.82</v>
       </c>
       <c r="Q36">
-        <v>35.624000000000002</v>
+        <v>80.790999999999997</v>
       </c>
       <c r="R36">
-        <v>43588</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6572.6689999999999</v>
+        <v>2777.1370000000002</v>
       </c>
       <c r="U36">
-        <v>271.11099999999999</v>
+        <v>275.64400000000001</v>
       </c>
       <c r="V36">
-        <v>574.19500000000005</v>
+        <v>134.97200000000001</v>
       </c>
       <c r="W36">
-        <v>-82.756</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-394.267</v>
+        <v>1.129</v>
       </c>
       <c r="Y36">
-        <v>7238.9449999999997</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>385.01299999999998</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43679</v>
+        <v>40116</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>426.55500000000001</v>
+        <v>75.649000000000001</v>
       </c>
       <c r="D37">
-        <v>6981.7529999999997</v>
+        <v>2928.7510000000002</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2148.9360000000001</v>
+        <v>903.08199999999999</v>
       </c>
       <c r="G37">
-        <v>4919.1379999999999</v>
+        <v>2117.3139999999999</v>
       </c>
       <c r="H37">
-        <v>21917.528999999999</v>
+        <v>9132.5319999999992</v>
       </c>
       <c r="I37">
-        <v>2727.0790000000002</v>
+        <v>852.98800000000006</v>
       </c>
       <c r="J37">
-        <v>2573.4830000000002</v>
+        <v>4165.415</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4312.2700000000004</v>
+        <v>1310.933</v>
       </c>
       <c r="O37">
-        <v>15168.369000000001</v>
+        <v>6277.1180000000004</v>
       </c>
       <c r="P37">
-        <v>10969.984</v>
+        <v>4192.1769999999997</v>
       </c>
       <c r="Q37">
-        <v>-11.542999999999999</v>
+        <v>-178.35599999999999</v>
       </c>
       <c r="R37">
-        <v>43679</v>
+        <v>40116</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6749.16</v>
+        <v>2855.4140000000002</v>
       </c>
       <c r="U37">
-        <v>259.56799999999998</v>
+        <v>337.01900000000001</v>
       </c>
       <c r="V37">
-        <v>556.32600000000002</v>
+        <v>147.262</v>
       </c>
       <c r="W37">
-        <v>-82.38</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-420.58</v>
+        <v>-246.42400000000001</v>
       </c>
       <c r="Y37">
-        <v>7480.8710000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>426.55500000000001</v>
+        <v>75.649000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43770</v>
+        <v>40207</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>365.55</v>
+        <v>87.197000000000003</v>
       </c>
       <c r="D38">
-        <v>6991.393</v>
+        <v>3185.7849999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2065.0859999999998</v>
+        <v>1025.3889999999999</v>
       </c>
       <c r="G38">
-        <v>5068.5420000000004</v>
+        <v>1845.4490000000001</v>
       </c>
       <c r="H38">
-        <v>22412.79</v>
+        <v>8863.5190000000002</v>
       </c>
       <c r="I38">
-        <v>2844.1709999999998</v>
+        <v>830.95299999999997</v>
       </c>
       <c r="J38">
-        <v>2762.49</v>
+        <v>3456.7730000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4506.0379999999996</v>
+        <v>1206.5</v>
       </c>
       <c r="O38">
-        <v>15764.495000000001</v>
+        <v>5473.2209999999995</v>
       </c>
       <c r="P38">
-        <v>11392.472</v>
+        <v>3460.444</v>
       </c>
       <c r="Q38">
-        <v>16.507999999999999</v>
+        <v>-114.943</v>
       </c>
       <c r="R38">
-        <v>43770</v>
+        <v>40207</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>79800</v>
       </c>
       <c r="T38">
-        <v>6648.2950000000001</v>
+        <v>3390.2979999999998</v>
       </c>
       <c r="U38">
-        <v>276.07600000000002</v>
+        <v>222.07599999999999</v>
       </c>
       <c r="V38">
-        <v>530.58900000000006</v>
+        <v>281.69600000000003</v>
       </c>
       <c r="W38">
-        <v>-81.64</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-289.53300000000002</v>
+        <v>-334.77</v>
       </c>
       <c r="Y38">
-        <v>7688.9229999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>365.55</v>
+        <v>87.197000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43861</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>535.43700000000001</v>
+        <v>135.99600000000001</v>
       </c>
       <c r="D39">
-        <v>7157.6419999999998</v>
+        <v>3111.3139999999999</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2272.7629999999999</v>
+        <v>999.75599999999997</v>
       </c>
       <c r="G39">
-        <v>5177.8680000000004</v>
+        <v>1938.578</v>
       </c>
       <c r="H39">
-        <v>22825.083999999999</v>
+        <v>8977.0759999999991</v>
       </c>
       <c r="I39">
-        <v>2860.6819999999998</v>
+        <v>789.274</v>
       </c>
       <c r="J39">
-        <v>2911.4380000000001</v>
+        <v>3449.4650000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,164 +3960,164 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-0.46300000000000002</v>
       </c>
       <c r="N39">
-        <v>4543.5600000000004</v>
+        <v>1206.04</v>
       </c>
       <c r="O39">
-        <v>16122.584000000001</v>
+        <v>5440.55</v>
       </c>
       <c r="P39">
-        <v>11696.481</v>
+        <v>3453.0120000000002</v>
       </c>
       <c r="Q39">
-        <v>-35.756</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="R39">
-        <v>43861</v>
+        <v>40298</v>
       </c>
       <c r="S39">
-        <v>143000</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>6702.5</v>
+        <v>3536.5259999999998</v>
       </c>
       <c r="U39">
-        <v>240.32</v>
+        <v>222.709</v>
       </c>
       <c r="V39">
-        <v>576.88800000000003</v>
+        <v>91.212000000000003</v>
       </c>
       <c r="W39">
-        <v>-80.792000000000002</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-346.3</v>
+        <v>0.161</v>
       </c>
       <c r="Y39">
-        <v>7819.683</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>535.43700000000001</v>
+        <v>135.99600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43952</v>
+        <v>40389</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>650.44600000000003</v>
+        <v>141.19499999999999</v>
       </c>
       <c r="D40">
-        <v>8448.4490000000005</v>
+        <v>3214.1550000000002</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2595.692</v>
+        <v>1035.979</v>
       </c>
       <c r="G40">
-        <v>6992.4830000000002</v>
+        <v>2134.6840000000002</v>
       </c>
       <c r="H40">
-        <v>24848.312999999998</v>
+        <v>9179.4740000000002</v>
       </c>
       <c r="I40">
-        <v>2954.3609999999999</v>
+        <v>941.74199999999996</v>
       </c>
       <c r="J40">
-        <v>3967.221</v>
+        <v>3400.5210000000002</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>-725.2</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-0.55500000000000005</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>4843.2280000000001</v>
+        <v>1319.16</v>
       </c>
       <c r="O40">
-        <v>17638.859</v>
+        <v>5496.63</v>
       </c>
       <c r="P40">
-        <v>12915.614</v>
+        <v>3402.116</v>
       </c>
       <c r="Q40">
-        <v>2433.5920000000001</v>
+        <v>58.712000000000003</v>
       </c>
       <c r="R40">
-        <v>43952</v>
+        <v>40389</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>7209.4539999999997</v>
+        <v>3682.8440000000001</v>
       </c>
       <c r="U40">
-        <v>2673.9119999999998</v>
+        <v>281.42099999999999</v>
       </c>
       <c r="V40">
-        <v>1736.326</v>
+        <v>188.09399999999999</v>
       </c>
       <c r="W40">
-        <v>-90.617000000000004</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>892.23400000000004</v>
+        <v>-57.607999999999997</v>
       </c>
       <c r="Y40">
-        <v>7956.759</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>650.44600000000003</v>
+        <v>141.19499999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44043</v>
+        <v>40480</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>787.601</v>
+        <v>128.12</v>
       </c>
       <c r="D41">
-        <v>8684.241</v>
+        <v>3223.4270000000001</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2818.2350000000001</v>
+        <v>1010.668</v>
       </c>
       <c r="G41">
-        <v>7597.4080000000004</v>
+        <v>2272.7579999999998</v>
       </c>
       <c r="H41">
-        <v>25847.433000000001</v>
+        <v>9349.5740000000005</v>
       </c>
       <c r="I41">
-        <v>3400.6419999999998</v>
+        <v>971.53800000000001</v>
       </c>
       <c r="J41">
-        <v>4089.0010000000002</v>
+        <v>3332.2049999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5411.1880000000001</v>
+        <v>1410.3150000000001</v>
       </c>
       <c r="O41">
-        <v>18491.362000000001</v>
+        <v>5532.1840000000002</v>
       </c>
       <c r="P41">
-        <v>13229.618</v>
+        <v>3333.5630000000001</v>
       </c>
       <c r="Q41">
-        <v>285.69200000000001</v>
+        <v>-43.515000000000001</v>
       </c>
       <c r="R41">
-        <v>44043</v>
+        <v>40480</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>7356.0709999999999</v>
+        <v>3817.39</v>
       </c>
       <c r="U41">
-        <v>2959.6039999999998</v>
+        <v>237.90600000000001</v>
       </c>
       <c r="V41">
-        <v>1171.009</v>
+        <v>124.49</v>
       </c>
       <c r="W41">
-        <v>-89.650999999999996</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-657.16899999999998</v>
+        <v>-72.144000000000005</v>
       </c>
       <c r="Y41">
-        <v>8124.884</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>787.601</v>
+        <v>128.12</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44134</v>
+        <v>40571</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>222.54599999999999</v>
+      </c>
+      <c r="D42">
+        <v>3486.1039999999998</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1130.153</v>
+      </c>
+      <c r="G42">
+        <v>2367.8249999999998</v>
+      </c>
+      <c r="H42">
+        <v>9546.2219999999998</v>
+      </c>
+      <c r="I42">
+        <v>953.64099999999996</v>
+      </c>
+      <c r="J42">
+        <v>3316.7869999999998</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1365.373</v>
+      </c>
+      <c r="O42">
+        <v>5491.7430000000004</v>
+      </c>
+      <c r="P42">
+        <v>3323.15</v>
+      </c>
+      <c r="Q42">
+        <v>259.54000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40571</v>
+      </c>
+      <c r="S42">
+        <v>85900</v>
+      </c>
+      <c r="T42">
+        <v>4054.4789999999998</v>
+      </c>
+      <c r="U42">
+        <v>497.44600000000003</v>
+      </c>
+      <c r="V42">
+        <v>420.88799999999998</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-0.77600000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>222.54599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40662</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>156.96899999999999</v>
+      </c>
+      <c r="D43">
+        <v>3451.6970000000001</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1087.3969999999999</v>
+      </c>
+      <c r="G43">
+        <v>2506.8969999999999</v>
+      </c>
+      <c r="H43">
+        <v>9714.8639999999996</v>
+      </c>
+      <c r="I43">
+        <v>933.71</v>
+      </c>
+      <c r="J43">
+        <v>3290.0520000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-27.151</v>
+      </c>
+      <c r="N43">
+        <v>1387.23</v>
+      </c>
+      <c r="O43">
+        <v>5495.2079999999996</v>
+      </c>
+      <c r="P43">
+        <v>3291.0909999999999</v>
+      </c>
+      <c r="Q43">
+        <v>105.017</v>
+      </c>
+      <c r="R43">
+        <v>40662</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4219.6559999999999</v>
+      </c>
+      <c r="U43">
+        <v>602.46299999999997</v>
+      </c>
+      <c r="V43">
+        <v>223.572</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-26.963999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>156.96899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40753</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>146.042</v>
+      </c>
+      <c r="D44">
+        <v>3575.194</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1148.3420000000001</v>
+      </c>
+      <c r="G44">
+        <v>2272.7809999999999</v>
+      </c>
+      <c r="H44">
+        <v>9529.1029999999992</v>
+      </c>
+      <c r="I44">
+        <v>1122.9490000000001</v>
+      </c>
+      <c r="J44">
+        <v>2788.3440000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1526.951</v>
+      </c>
+      <c r="O44">
+        <v>5155.5389999999998</v>
+      </c>
+      <c r="P44">
+        <v>2800.4630000000002</v>
+      </c>
+      <c r="Q44">
+        <v>-489.41300000000001</v>
+      </c>
+      <c r="R44">
+        <v>40753</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4373.5640000000003</v>
+      </c>
+      <c r="U44">
+        <v>113.05</v>
+      </c>
+      <c r="V44">
+        <v>174.86699999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-538.221</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>146.042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>171.16399999999999</v>
+      </c>
+      <c r="D45">
+        <v>3595.2240000000002</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1115.8019999999999</v>
+      </c>
+      <c r="G45">
+        <v>2392.855</v>
+      </c>
+      <c r="H45">
+        <v>9735.8819999999996</v>
+      </c>
+      <c r="I45">
+        <v>1132.5440000000001</v>
+      </c>
+      <c r="J45">
+        <v>2728.3339999999998</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1572.221</v>
+      </c>
+      <c r="O45">
+        <v>5181.87</v>
+      </c>
+      <c r="P45">
+        <v>2736.9389999999999</v>
+      </c>
+      <c r="Q45">
+        <v>5.53</v>
+      </c>
+      <c r="R45">
+        <v>40844</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4554.0119999999997</v>
+      </c>
+      <c r="U45">
+        <v>118.58</v>
+      </c>
+      <c r="V45">
+        <v>206.06</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-55.81</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>171.16399999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40942</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>292.51</v>
+      </c>
+      <c r="D46">
+        <v>4185.0730000000003</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1346.3689999999999</v>
+      </c>
+      <c r="G46">
+        <v>2275.0740000000001</v>
+      </c>
+      <c r="H46">
+        <v>9688.52</v>
+      </c>
+      <c r="I46">
+        <v>1064.087</v>
+      </c>
+      <c r="J46">
+        <v>2613.3919999999998</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1509.902</v>
+      </c>
+      <c r="O46">
+        <v>5013.9380000000001</v>
+      </c>
+      <c r="P46">
+        <v>2629.3009999999999</v>
+      </c>
+      <c r="Q46">
+        <v>7.5460000000000003</v>
+      </c>
+      <c r="R46">
+        <v>40942</v>
+      </c>
+      <c r="S46">
+        <v>90000</v>
+      </c>
+      <c r="T46">
+        <v>4674.5820000000003</v>
+      </c>
+      <c r="U46">
+        <v>126.126</v>
+      </c>
+      <c r="V46">
+        <v>445.98099999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-286.97000000000003</v>
+      </c>
+      <c r="Y46">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>292.51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41033</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>213.41499999999999</v>
+      </c>
+      <c r="D47">
+        <v>3901.2049999999999</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1228.2560000000001</v>
+      </c>
+      <c r="G47">
+        <v>2273.7350000000001</v>
+      </c>
+      <c r="H47">
+        <v>9770.2080000000005</v>
+      </c>
+      <c r="I47">
+        <v>985.92399999999998</v>
+      </c>
+      <c r="J47">
+        <v>2880.92</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-322.00200000000001</v>
+      </c>
+      <c r="N47">
+        <v>1411.2529999999999</v>
+      </c>
+      <c r="O47">
+        <v>5178.7759999999998</v>
+      </c>
+      <c r="P47">
+        <v>2888.143</v>
+      </c>
+      <c r="Q47">
+        <v>6.4039999999999999</v>
+      </c>
+      <c r="R47">
+        <v>41033</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4591.4319999999998</v>
+      </c>
+      <c r="U47">
+        <v>132.53</v>
+      </c>
+      <c r="V47">
+        <v>192.63900000000001</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-40.497</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>213.41499999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>214.14</v>
+      </c>
+      <c r="D48">
+        <v>3948.6550000000002</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1263.223</v>
+      </c>
+      <c r="G48">
+        <v>2514.444</v>
+      </c>
+      <c r="H48">
+        <v>10103.474</v>
+      </c>
+      <c r="I48">
+        <v>1143.857</v>
+      </c>
+      <c r="J48">
+        <v>2892.627</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1526.683</v>
+      </c>
+      <c r="O48">
+        <v>5293.0640000000003</v>
+      </c>
+      <c r="P48">
+        <v>2896.0880000000002</v>
+      </c>
+      <c r="Q48">
+        <v>1.627</v>
+      </c>
+      <c r="R48">
+        <v>41124</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4810.41</v>
+      </c>
+      <c r="U48">
+        <v>134.15700000000001</v>
+      </c>
+      <c r="V48">
+        <v>180.85300000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-21.402000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>214.14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>207.685</v>
+      </c>
+      <c r="D49">
+        <v>3964.6469999999999</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1226.123</v>
+      </c>
+      <c r="G49">
+        <v>2618.192</v>
+      </c>
+      <c r="H49">
+        <v>10273.677</v>
+      </c>
+      <c r="I49">
+        <v>1199.7270000000001</v>
+      </c>
+      <c r="J49">
+        <v>3022.3049999999998</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1633.8389999999999</v>
+      </c>
+      <c r="O49">
+        <v>5538.8149999999996</v>
+      </c>
+      <c r="P49">
+        <v>3031.8249999999998</v>
+      </c>
+      <c r="Q49">
+        <v>8.423</v>
+      </c>
+      <c r="R49">
+        <v>41215</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4734.8620000000001</v>
+      </c>
+      <c r="U49">
+        <v>142.58000000000001</v>
+      </c>
+      <c r="V49">
+        <v>317.39400000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-160.05099999999999</v>
+      </c>
+      <c r="Y49">
+        <v>7.0720000000000001</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>207.685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>317.42200000000003</v>
+      </c>
+      <c r="D50">
+        <v>4207.6210000000001</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1367.799</v>
+      </c>
+      <c r="G50">
+        <v>2677.1129999999998</v>
+      </c>
+      <c r="H50">
+        <v>10367.682000000001</v>
+      </c>
+      <c r="I50">
+        <v>1261.607</v>
+      </c>
+      <c r="J50">
+        <v>2776.1579999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1738.547</v>
+      </c>
+      <c r="O50">
+        <v>5382.3519999999999</v>
+      </c>
+      <c r="P50">
+        <v>2777.05</v>
+      </c>
+      <c r="Q50">
+        <v>-1.7709999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41306</v>
+      </c>
+      <c r="S50">
+        <v>90500</v>
+      </c>
+      <c r="T50">
+        <v>4985.33</v>
+      </c>
+      <c r="U50">
+        <v>140.809</v>
+      </c>
+      <c r="V50">
+        <v>440.46600000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-324.88299999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>317.42200000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41397</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>220.083</v>
+      </c>
+      <c r="D51">
+        <v>4233.7330000000002</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1295.1479999999999</v>
+      </c>
+      <c r="G51">
+        <v>2724.4760000000001</v>
+      </c>
+      <c r="H51">
+        <v>10493.697</v>
+      </c>
+      <c r="I51">
+        <v>1138.395</v>
+      </c>
+      <c r="J51">
+        <v>2834.78</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2728.116</v>
+      </c>
+      <c r="N51">
+        <v>1600.402</v>
+      </c>
+      <c r="O51">
+        <v>5314.7979999999998</v>
+      </c>
+      <c r="P51">
+        <v>2842.2959999999998</v>
+      </c>
+      <c r="Q51">
+        <v>14.717000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41397</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5178.8990000000003</v>
+      </c>
+      <c r="U51">
+        <v>155.52600000000001</v>
+      </c>
+      <c r="V51">
+        <v>147.226</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>17.068000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>6.6070000000000002</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>220.083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41488</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>245.47499999999999</v>
+      </c>
+      <c r="D52">
+        <v>4394.6509999999998</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1377.29</v>
+      </c>
+      <c r="G52">
+        <v>2864.7429999999999</v>
+      </c>
+      <c r="H52">
+        <v>10699.63</v>
+      </c>
+      <c r="I52">
+        <v>1254.856</v>
+      </c>
+      <c r="J52">
+        <v>2849.549</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1740.19</v>
+      </c>
+      <c r="O52">
+        <v>5468.1540000000005</v>
+      </c>
+      <c r="P52">
+        <v>2875.4760000000001</v>
+      </c>
+      <c r="Q52">
+        <v>13.694000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41488</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>5231.4759999999997</v>
+      </c>
+      <c r="U52">
+        <v>169.22</v>
+      </c>
+      <c r="V52">
+        <v>336.88900000000001</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-164.50399999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>245.47499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>237.38499999999999</v>
+      </c>
+      <c r="D53">
+        <v>4381.8379999999997</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1328.4929999999999</v>
+      </c>
+      <c r="G53">
+        <v>2904.3020000000001</v>
+      </c>
+      <c r="H53">
+        <v>10775.974</v>
+      </c>
+      <c r="I53">
+        <v>1251.394</v>
+      </c>
+      <c r="J53">
+        <v>2878.442</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1753.049</v>
+      </c>
+      <c r="O53">
+        <v>5501.02</v>
+      </c>
+      <c r="P53">
+        <v>2929.3870000000002</v>
+      </c>
+      <c r="Q53">
+        <v>-3.5030000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41579</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>5274.9539999999997</v>
+      </c>
+      <c r="U53">
+        <v>165.71700000000001</v>
+      </c>
+      <c r="V53">
+        <v>276.45999999999998</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-145.203</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>237.38499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>322.173</v>
+      </c>
+      <c r="D54">
+        <v>4493.9449999999997</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1434.8109999999999</v>
+      </c>
+      <c r="G54">
+        <v>3205.607</v>
+      </c>
+      <c r="H54">
+        <v>10867.523999999999</v>
+      </c>
+      <c r="I54">
+        <v>1286.4839999999999</v>
+      </c>
+      <c r="J54">
+        <v>2746.8969999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1811.971</v>
+      </c>
+      <c r="O54">
+        <v>5465.3310000000001</v>
+      </c>
+      <c r="P54">
+        <v>2822.8629999999998</v>
+      </c>
+      <c r="Q54">
+        <v>339.84899999999999</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>100600</v>
+      </c>
+      <c r="T54">
+        <v>5402.1930000000002</v>
+      </c>
+      <c r="U54">
+        <v>505.56599999999997</v>
+      </c>
+      <c r="V54">
+        <v>452.49</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-305.69099999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>322.173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>222.398</v>
+      </c>
+      <c r="D55">
+        <v>4522.0810000000001</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1357.7460000000001</v>
+      </c>
+      <c r="G55">
+        <v>2943.346</v>
+      </c>
+      <c r="H55">
+        <v>10601.884</v>
+      </c>
+      <c r="I55">
+        <v>1222.68</v>
+      </c>
+      <c r="J55">
+        <v>3010.1770000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-142.434</v>
+      </c>
+      <c r="N55">
+        <v>1863.318</v>
+      </c>
+      <c r="O55">
+        <v>5769.6570000000002</v>
+      </c>
+      <c r="P55">
+        <v>3111.1660000000002</v>
+      </c>
+      <c r="Q55">
+        <v>-339.23599999999999</v>
+      </c>
+      <c r="R55">
+        <v>41761</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4832.2269999999999</v>
+      </c>
+      <c r="U55">
+        <v>166.33</v>
+      </c>
+      <c r="V55">
+        <v>251.46</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-506.71100000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>222.398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>251.26</v>
+      </c>
+      <c r="D56">
+        <v>4724.0389999999998</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1455.5740000000001</v>
+      </c>
+      <c r="G56">
+        <v>3140.6309999999999</v>
+      </c>
+      <c r="H56">
+        <v>10825.794</v>
+      </c>
+      <c r="I56">
+        <v>1395.78</v>
+      </c>
+      <c r="J56">
+        <v>2881.2170000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1969.4179999999999</v>
+      </c>
+      <c r="O56">
+        <v>5729.8010000000004</v>
+      </c>
+      <c r="P56">
+        <v>2985.1770000000001</v>
+      </c>
+      <c r="Q56">
+        <v>6.1440000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41852</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5095.9930000000004</v>
+      </c>
+      <c r="U56">
+        <v>172.47399999999999</v>
+      </c>
+      <c r="V56">
+        <v>235.464</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-122.583</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>251.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>236.316</v>
+      </c>
+      <c r="D57">
+        <v>4724.4089999999997</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1423.748</v>
+      </c>
+      <c r="G57">
+        <v>3179.1320000000001</v>
+      </c>
+      <c r="H57">
+        <v>10877.371999999999</v>
+      </c>
+      <c r="I57">
+        <v>1394.873</v>
+      </c>
+      <c r="J57">
+        <v>2666.0219999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2010.846</v>
+      </c>
+      <c r="O57">
+        <v>5533.7349999999997</v>
+      </c>
+      <c r="P57">
+        <v>2769.2579999999998</v>
+      </c>
+      <c r="Q57">
+        <v>43.680999999999997</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5343.6369999999997</v>
+      </c>
+      <c r="U57">
+        <v>216.155</v>
+      </c>
+      <c r="V57">
+        <v>353.62299999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-213.715</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>236.316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42034</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>355.37099999999998</v>
+      </c>
+      <c r="D58">
+        <v>4939.0590000000002</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1565.4390000000001</v>
+      </c>
+      <c r="G58">
+        <v>3532.6089999999999</v>
+      </c>
+      <c r="H58">
+        <v>11208.642</v>
+      </c>
+      <c r="I58">
+        <v>1388.154</v>
+      </c>
+      <c r="J58">
+        <v>2623.9650000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1962.472</v>
+      </c>
+      <c r="O58">
+        <v>5498.6040000000003</v>
+      </c>
+      <c r="P58">
+        <v>2725.123</v>
+      </c>
+      <c r="Q58">
+        <v>363.66800000000001</v>
+      </c>
+      <c r="R58">
+        <v>42034</v>
+      </c>
+      <c r="S58">
+        <v>105500</v>
+      </c>
+      <c r="T58">
+        <v>5710.0379999999996</v>
+      </c>
+      <c r="U58">
+        <v>579.82299999999998</v>
+      </c>
+      <c r="V58">
+        <v>474.197</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-25.779</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>355.37099999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>253.23500000000001</v>
+      </c>
+      <c r="D59">
+        <v>4918.6719999999996</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1498.7049999999999</v>
+      </c>
+      <c r="G59">
+        <v>3244.9</v>
+      </c>
+      <c r="H59">
+        <v>10956.55</v>
+      </c>
+      <c r="I59">
+        <v>1435.367</v>
+      </c>
+      <c r="J59">
+        <v>2614.0050000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-38.345999999999997</v>
+      </c>
+      <c r="N59">
+        <v>2072.9389999999999</v>
+      </c>
+      <c r="O59">
+        <v>5570.692</v>
+      </c>
+      <c r="P59">
+        <v>2715.5770000000002</v>
+      </c>
+      <c r="Q59">
+        <v>-354.70699999999999</v>
+      </c>
+      <c r="R59">
+        <v>42125</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5385.8580000000002</v>
+      </c>
+      <c r="U59">
+        <v>225.11600000000001</v>
+      </c>
+      <c r="V59">
+        <v>370.21</v>
+      </c>
+      <c r="W59">
+        <v>-66.037000000000006</v>
+      </c>
+      <c r="X59">
+        <v>-625.15099999999995</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>253.23500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>282.34899999999999</v>
+      </c>
+      <c r="D60">
+        <v>5095.9040000000005</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1588.155</v>
+      </c>
+      <c r="G60">
+        <v>3424.8470000000002</v>
+      </c>
+      <c r="H60">
+        <v>11195.195</v>
+      </c>
+      <c r="I60">
+        <v>1536.61</v>
+      </c>
+      <c r="J60">
+        <v>2761.7939999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2154.7629999999999</v>
+      </c>
+      <c r="O60">
+        <v>5776.2610000000004</v>
+      </c>
+      <c r="P60">
+        <v>2863.1289999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-44.591000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5418.9340000000002</v>
+      </c>
+      <c r="U60">
+        <v>180.52500000000001</v>
+      </c>
+      <c r="V60">
+        <v>214.77099999999999</v>
+      </c>
+      <c r="W60">
+        <v>-65.167000000000002</v>
+      </c>
+      <c r="X60">
+        <v>-112.334</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>282.34899999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42307</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>253.321</v>
+      </c>
+      <c r="D61">
+        <v>5067.0479999999998</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1536.962</v>
+      </c>
+      <c r="G61">
+        <v>3488.7750000000001</v>
+      </c>
+      <c r="H61">
+        <v>11288.293</v>
+      </c>
+      <c r="I61">
+        <v>1470.107</v>
+      </c>
+      <c r="J61">
+        <v>3101.3879999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1991.5830000000001</v>
+      </c>
+      <c r="O61">
+        <v>5944.7</v>
+      </c>
+      <c r="P61">
+        <v>3106.69</v>
+      </c>
+      <c r="Q61">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42307</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>5343.5929999999998</v>
+      </c>
+      <c r="U61">
+        <v>182.51400000000001</v>
+      </c>
+      <c r="V61">
+        <v>224.131</v>
+      </c>
+      <c r="W61">
+        <v>-63.965000000000003</v>
+      </c>
+      <c r="X61">
+        <v>-82.863</v>
+      </c>
+      <c r="Y61">
+        <v>3.944</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>253.321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42398</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>376.17500000000001</v>
+      </c>
+      <c r="D62">
+        <v>5286.9380000000001</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1682.269</v>
+      </c>
+      <c r="G62">
+        <v>3432.41</v>
+      </c>
+      <c r="H62">
+        <v>11257.885</v>
+      </c>
+      <c r="I62">
+        <v>1494.2249999999999</v>
+      </c>
+      <c r="J62">
+        <v>2969.1750000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1995.596</v>
+      </c>
+      <c r="O62">
+        <v>5880.009</v>
+      </c>
+      <c r="P62">
+        <v>2970.5540000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-24.567</v>
+      </c>
+      <c r="R62">
+        <v>42398</v>
+      </c>
+      <c r="S62">
+        <v>113400</v>
+      </c>
+      <c r="T62">
+        <v>5377.8760000000002</v>
+      </c>
+      <c r="U62">
+        <v>157.947</v>
+      </c>
+      <c r="V62">
+        <v>582.57399999999996</v>
+      </c>
+      <c r="W62">
+        <v>-63.158999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-489.83100000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>376.17500000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42489</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>295.12400000000002</v>
+      </c>
+      <c r="D63">
+        <v>5265.4319999999998</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1612.614</v>
+      </c>
+      <c r="G63">
+        <v>3477.346</v>
+      </c>
+      <c r="H63">
+        <v>11316.384</v>
+      </c>
+      <c r="I63">
+        <v>1447.223</v>
+      </c>
+      <c r="J63">
+        <v>2989.663</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-731.49699999999996</v>
+      </c>
+      <c r="N63">
+        <v>2011.5940000000001</v>
+      </c>
+      <c r="O63">
+        <v>5928.0010000000002</v>
+      </c>
+      <c r="P63">
+        <v>2991.1889999999999</v>
+      </c>
+      <c r="Q63">
+        <v>29.74</v>
+      </c>
+      <c r="R63">
+        <v>42489</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5388.3829999999998</v>
+      </c>
+      <c r="U63">
+        <v>187.68700000000001</v>
+      </c>
+      <c r="V63">
+        <v>403.95299999999997</v>
+      </c>
+      <c r="W63">
+        <v>-71.308000000000007</v>
+      </c>
+      <c r="X63">
+        <v>-275.56799999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>295.12400000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>306.51799999999997</v>
+      </c>
+      <c r="D64">
+        <v>5391.8909999999996</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1681.7670000000001</v>
+      </c>
+      <c r="G64">
+        <v>3708.0509999999999</v>
+      </c>
+      <c r="H64">
+        <v>11617.37</v>
+      </c>
+      <c r="I64">
+        <v>1720.7719999999999</v>
+      </c>
+      <c r="J64">
+        <v>2556.4639999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2719.4059999999999</v>
+      </c>
+      <c r="O64">
+        <v>6204.009</v>
+      </c>
+      <c r="P64">
+        <v>3058.0120000000002</v>
+      </c>
+      <c r="Q64">
+        <v>-2.6539999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42580</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5413.3609999999999</v>
+      </c>
+      <c r="U64">
+        <v>185.03299999999999</v>
+      </c>
+      <c r="V64">
+        <v>389.38099999999997</v>
+      </c>
+      <c r="W64">
+        <v>-70.852999999999994</v>
+      </c>
+      <c r="X64">
+        <v>-225.29400000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>306.51799999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42671</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>235.315</v>
+      </c>
+      <c r="D65">
+        <v>5320.0290000000005</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1587.51</v>
+      </c>
+      <c r="G65">
+        <v>3968.5120000000002</v>
+      </c>
+      <c r="H65">
+        <v>11917.075999999999</v>
+      </c>
+      <c r="I65">
+        <v>1948.1110000000001</v>
+      </c>
+      <c r="J65">
+        <v>2673.21</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2959.739</v>
+      </c>
+      <c r="O65">
+        <v>6555.2240000000002</v>
+      </c>
+      <c r="P65">
+        <v>3174.69</v>
+      </c>
+      <c r="Q65">
+        <v>15.202999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42671</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5361.8519999999999</v>
+      </c>
+      <c r="U65">
+        <v>200.23599999999999</v>
+      </c>
+      <c r="V65">
+        <v>331.08</v>
+      </c>
+      <c r="W65">
+        <v>-70.087999999999994</v>
+      </c>
+      <c r="X65">
+        <v>-179.697</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>235.315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42769</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>414.17599999999999</v>
+      </c>
+      <c r="D66">
+        <v>6009.2460000000001</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1900.7470000000001</v>
+      </c>
+      <c r="G66">
+        <v>3677.7710000000002</v>
+      </c>
+      <c r="H66">
+        <v>11672.298000000001</v>
+      </c>
+      <c r="I66">
+        <v>1557.596</v>
+      </c>
+      <c r="J66">
+        <v>2710.576</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2622.8049999999998</v>
+      </c>
+      <c r="O66">
+        <v>6266.0039999999999</v>
+      </c>
+      <c r="P66">
+        <v>3211.5259999999998</v>
+      </c>
+      <c r="Q66">
+        <v>-12.321</v>
+      </c>
+      <c r="R66">
+        <v>42769</v>
+      </c>
+      <c r="S66">
+        <v>121000</v>
+      </c>
+      <c r="T66">
+        <v>5406.2939999999999</v>
+      </c>
+      <c r="U66">
+        <v>187.91499999999999</v>
+      </c>
+      <c r="V66">
+        <v>480.62700000000001</v>
+      </c>
+      <c r="W66">
+        <v>-68.885999999999996</v>
+      </c>
+      <c r="X66">
+        <v>-343.57799999999997</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>414.17599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>279.48899999999998</v>
+      </c>
+      <c r="D67">
+        <v>5609.625</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1698.9829999999999</v>
+      </c>
+      <c r="G67">
+        <v>3748.9490000000001</v>
+      </c>
+      <c r="H67">
+        <v>11796.355</v>
+      </c>
+      <c r="I67">
+        <v>1622.7760000000001</v>
+      </c>
+      <c r="J67">
+        <v>2629.509</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-22.8</v>
+      </c>
+      <c r="M67">
+        <v>-750.27499999999998</v>
+      </c>
+      <c r="N67">
+        <v>2692.0410000000002</v>
+      </c>
+      <c r="O67">
+        <v>6267.4740000000002</v>
+      </c>
+      <c r="P67">
+        <v>3033.2779999999998</v>
+      </c>
+      <c r="Q67">
+        <v>18.062000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42860</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5528.8810000000003</v>
+      </c>
+      <c r="U67">
+        <v>205.977</v>
+      </c>
+      <c r="V67">
+        <v>510.46199999999999</v>
+      </c>
+      <c r="W67">
+        <v>-71.293999999999997</v>
+      </c>
+      <c r="X67">
+        <v>-349.012</v>
+      </c>
+      <c r="Y67">
+        <v>2.581</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>279.48899999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42951</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>294.78300000000002</v>
+      </c>
+      <c r="D68">
+        <v>5828.3050000000003</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1790.5219999999999</v>
+      </c>
+      <c r="G68">
+        <v>3979.991</v>
+      </c>
+      <c r="H68">
+        <v>12120.824000000001</v>
+      </c>
+      <c r="I68">
+        <v>1880.6679999999999</v>
+      </c>
+      <c r="J68">
+        <v>2683.105</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2806.7550000000001</v>
+      </c>
+      <c r="O68">
+        <v>6433.7290000000003</v>
+      </c>
+      <c r="P68">
+        <v>3084.5070000000001</v>
+      </c>
+      <c r="Q68">
+        <v>8.1959999999999997</v>
+      </c>
+      <c r="R68">
+        <v>42951</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5687.0950000000003</v>
+      </c>
+      <c r="U68">
+        <v>214.173</v>
+      </c>
+      <c r="V68">
+        <v>275.76799999999997</v>
+      </c>
+      <c r="W68">
+        <v>-71.045000000000002</v>
+      </c>
+      <c r="X68">
+        <v>-97.253</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>294.78300000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43042</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>252.53299999999999</v>
+      </c>
+      <c r="D69">
+        <v>5903.6059999999998</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1766.4559999999999</v>
+      </c>
+      <c r="G69">
+        <v>4153.3339999999998</v>
+      </c>
+      <c r="H69">
+        <v>12374.755999999999</v>
+      </c>
+      <c r="I69">
+        <v>1978.0319999999999</v>
+      </c>
+      <c r="J69">
+        <v>2719.5680000000002</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2937.806</v>
+      </c>
+      <c r="O69">
+        <v>6630.6009999999997</v>
+      </c>
+      <c r="P69">
+        <v>3121.1</v>
+      </c>
+      <c r="Q69">
+        <v>12.019</v>
+      </c>
+      <c r="R69">
+        <v>43042</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5744.1549999999997</v>
+      </c>
+      <c r="U69">
+        <v>226.19200000000001</v>
+      </c>
+      <c r="V69">
+        <v>356.65</v>
+      </c>
+      <c r="W69">
+        <v>-70.594999999999999</v>
+      </c>
+      <c r="X69">
+        <v>-170.727</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>252.53299999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>712.15499999999997</v>
+      </c>
+      <c r="D70">
+        <v>6129.4309999999996</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1965.3979999999999</v>
+      </c>
+      <c r="G70">
+        <v>4247.8519999999999</v>
+      </c>
+      <c r="H70">
+        <v>12516.911</v>
+      </c>
+      <c r="I70">
+        <v>2009.771</v>
+      </c>
+      <c r="J70">
+        <v>2604.6129999999998</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2964.8780000000002</v>
+      </c>
+      <c r="O70">
+        <v>6391.1369999999997</v>
+      </c>
+      <c r="P70">
+        <v>3005.9580000000001</v>
+      </c>
+      <c r="Q70">
+        <v>41.249000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43133</v>
+      </c>
+      <c r="S70">
+        <v>129000</v>
+      </c>
+      <c r="T70">
+        <v>6125.7740000000003</v>
+      </c>
+      <c r="U70">
+        <v>267.44099999999997</v>
+      </c>
+      <c r="V70">
+        <v>659.22799999999995</v>
+      </c>
+      <c r="W70">
+        <v>-69.997</v>
+      </c>
+      <c r="X70">
+        <v>-460.56200000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>712.15499999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>364.85199999999998</v>
+      </c>
+      <c r="D71">
+        <v>6114.4629999999997</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1862.249</v>
+      </c>
+      <c r="G71">
+        <v>4166.0360000000001</v>
+      </c>
+      <c r="H71">
+        <v>12493.23</v>
+      </c>
+      <c r="I71">
+        <v>2018.32</v>
+      </c>
+      <c r="J71">
+        <v>2851.8690000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-237.2</v>
+      </c>
+      <c r="M71">
+        <v>-400.33</v>
+      </c>
+      <c r="N71">
+        <v>2525.3319999999999</v>
+      </c>
+      <c r="O71">
+        <v>6256.9120000000003</v>
+      </c>
+      <c r="P71">
+        <v>2864.386</v>
+      </c>
+      <c r="Q71">
+        <v>16.529</v>
+      </c>
+      <c r="R71">
+        <v>43224</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6236.3180000000002</v>
+      </c>
+      <c r="U71">
+        <v>283.97000000000003</v>
+      </c>
+      <c r="V71">
+        <v>548.64800000000002</v>
+      </c>
+      <c r="W71">
+        <v>-77.656999999999996</v>
+      </c>
+      <c r="X71">
+        <v>-368.12</v>
+      </c>
+      <c r="Y71">
+        <v>10.628</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>364.85199999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43315</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>407.23700000000002</v>
+      </c>
+      <c r="D72">
+        <v>6443.3090000000002</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1974.873</v>
+      </c>
+      <c r="G72">
+        <v>4517.826</v>
+      </c>
+      <c r="H72">
+        <v>12943.949000000001</v>
+      </c>
+      <c r="I72">
+        <v>2294.9960000000001</v>
+      </c>
+      <c r="J72">
+        <v>2776.8110000000001</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2915.5439999999999</v>
+      </c>
+      <c r="O72">
+        <v>6565.0069999999996</v>
+      </c>
+      <c r="P72">
+        <v>2778.72</v>
+      </c>
+      <c r="Q72">
+        <v>-18.681999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43315</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6378.942</v>
+      </c>
+      <c r="U72">
+        <v>265.28800000000001</v>
+      </c>
+      <c r="V72">
+        <v>548.64099999999996</v>
+      </c>
+      <c r="W72">
+        <v>-77.051000000000002</v>
+      </c>
+      <c r="X72">
+        <v>-361.70299999999997</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>407.23700000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43406</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>334.142</v>
+      </c>
+      <c r="D73">
+        <v>6417.4620000000004</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1895.059</v>
+      </c>
+      <c r="G73">
+        <v>4630.3440000000001</v>
+      </c>
+      <c r="H73">
+        <v>13121.021000000001</v>
+      </c>
+      <c r="I73">
+        <v>2336.7719999999999</v>
+      </c>
+      <c r="J73">
+        <v>2902.4389999999999</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2982.1819999999998</v>
+      </c>
+      <c r="O73">
+        <v>6765.1329999999998</v>
+      </c>
+      <c r="P73">
+        <v>2904.3679999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="R73">
+        <v>43406</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6355.8879999999999</v>
+      </c>
+      <c r="U73">
+        <v>260.68799999999999</v>
+      </c>
+      <c r="V73">
+        <v>416.82799999999997</v>
+      </c>
+      <c r="W73">
+        <v>-76.52</v>
+      </c>
+      <c r="X73">
+        <v>-241.96600000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>334.142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>483.24099999999999</v>
+      </c>
+      <c r="D74">
+        <v>6649.8090000000002</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>2071.6889999999999</v>
+      </c>
+      <c r="G74">
+        <v>4663.0200000000004</v>
+      </c>
+      <c r="H74">
+        <v>13204.038</v>
+      </c>
+      <c r="I74">
+        <v>2385.4690000000001</v>
+      </c>
+      <c r="J74">
+        <v>2862.74</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3015.857</v>
+      </c>
+      <c r="O74">
+        <v>6786.6450000000004</v>
+      </c>
+      <c r="P74">
+        <v>2864.69</v>
+      </c>
+      <c r="Q74">
+        <v>-25.201000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43497</v>
+      </c>
+      <c r="S74">
+        <v>135000</v>
+      </c>
+      <c r="T74">
+        <v>6417.393</v>
+      </c>
+      <c r="U74">
+        <v>235.48699999999999</v>
+      </c>
+      <c r="V74">
+        <v>629.43299999999999</v>
+      </c>
+      <c r="W74">
+        <v>-75.295000000000002</v>
+      </c>
+      <c r="X74">
+        <v>-472.11200000000002</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>483.24099999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>385.01299999999998</v>
+      </c>
+      <c r="D75">
+        <v>6623.1850000000004</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2002.2760000000001</v>
+      </c>
+      <c r="G75">
+        <v>4583.7690000000002</v>
+      </c>
+      <c r="H75">
+        <v>21304.284</v>
+      </c>
+      <c r="I75">
+        <v>2452.8980000000001</v>
+      </c>
+      <c r="J75">
+        <v>2732.105</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-121.3</v>
+      </c>
+      <c r="M75">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="N75">
+        <v>3956.7159999999999</v>
+      </c>
+      <c r="O75">
+        <v>14731.615</v>
+      </c>
+      <c r="P75">
+        <v>10866.074000000001</v>
+      </c>
+      <c r="Q75">
+        <v>35.624000000000002</v>
+      </c>
+      <c r="R75">
+        <v>43588</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6572.6689999999999</v>
+      </c>
+      <c r="U75">
+        <v>271.11099999999999</v>
+      </c>
+      <c r="V75">
+        <v>574.19500000000005</v>
+      </c>
+      <c r="W75">
+        <v>-82.756</v>
+      </c>
+      <c r="X75">
+        <v>-394.267</v>
+      </c>
+      <c r="Y75">
+        <v>7238.9449999999997</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>385.01299999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43679</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>426.55500000000001</v>
+      </c>
+      <c r="D76">
+        <v>6981.7529999999997</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2148.9360000000001</v>
+      </c>
+      <c r="G76">
+        <v>4919.1379999999999</v>
+      </c>
+      <c r="H76">
+        <v>21917.528999999999</v>
+      </c>
+      <c r="I76">
+        <v>2727.0790000000002</v>
+      </c>
+      <c r="J76">
+        <v>2573.4830000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4312.2700000000004</v>
+      </c>
+      <c r="O76">
+        <v>15168.369000000001</v>
+      </c>
+      <c r="P76">
+        <v>10969.984</v>
+      </c>
+      <c r="Q76">
+        <v>-11.542999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43679</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6749.16</v>
+      </c>
+      <c r="U76">
+        <v>259.56799999999998</v>
+      </c>
+      <c r="V76">
+        <v>556.32600000000002</v>
+      </c>
+      <c r="W76">
+        <v>-82.38</v>
+      </c>
+      <c r="X76">
+        <v>-420.58</v>
+      </c>
+      <c r="Y76">
+        <v>7480.8710000000001</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>426.55500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>365.55</v>
+      </c>
+      <c r="D77">
+        <v>6991.393</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2065.0859999999998</v>
+      </c>
+      <c r="G77">
+        <v>5068.5420000000004</v>
+      </c>
+      <c r="H77">
+        <v>22412.79</v>
+      </c>
+      <c r="I77">
+        <v>2844.1709999999998</v>
+      </c>
+      <c r="J77">
+        <v>2762.49</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4506.0379999999996</v>
+      </c>
+      <c r="O77">
+        <v>15764.495000000001</v>
+      </c>
+      <c r="P77">
+        <v>11392.472</v>
+      </c>
+      <c r="Q77">
+        <v>16.507999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43770</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6648.2950000000001</v>
+      </c>
+      <c r="U77">
+        <v>276.07600000000002</v>
+      </c>
+      <c r="V77">
+        <v>530.58900000000006</v>
+      </c>
+      <c r="W77">
+        <v>-81.64</v>
+      </c>
+      <c r="X77">
+        <v>-289.53300000000002</v>
+      </c>
+      <c r="Y77">
+        <v>7688.9229999999998</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>365.55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>535.43700000000001</v>
+      </c>
+      <c r="D78">
+        <v>7157.6419999999998</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2272.7629999999999</v>
+      </c>
+      <c r="G78">
+        <v>5177.8680000000004</v>
+      </c>
+      <c r="H78">
+        <v>22825.083999999999</v>
+      </c>
+      <c r="I78">
+        <v>2860.6819999999998</v>
+      </c>
+      <c r="J78">
+        <v>2911.9929999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4543.0050000000001</v>
+      </c>
+      <c r="O78">
+        <v>16122.584000000001</v>
+      </c>
+      <c r="P78">
+        <v>11696.481</v>
+      </c>
+      <c r="Q78">
+        <v>-35.756</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>143000</v>
+      </c>
+      <c r="T78">
+        <v>6702.5</v>
+      </c>
+      <c r="U78">
+        <v>240.32</v>
+      </c>
+      <c r="V78">
+        <v>576.88800000000003</v>
+      </c>
+      <c r="W78">
+        <v>-80.792000000000002</v>
+      </c>
+      <c r="X78">
+        <v>-346.3</v>
+      </c>
+      <c r="Y78">
+        <v>7819.683</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>535.43700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>650.44600000000003</v>
+      </c>
+      <c r="D79">
+        <v>8448.4490000000005</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2595.692</v>
+      </c>
+      <c r="G79">
+        <v>6992.4830000000002</v>
+      </c>
+      <c r="H79">
+        <v>24848.312999999998</v>
+      </c>
+      <c r="I79">
+        <v>2954.3609999999999</v>
+      </c>
+      <c r="J79">
+        <v>3967.221</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-725.2</v>
+      </c>
+      <c r="M79">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="N79">
+        <v>4843.2280000000001</v>
+      </c>
+      <c r="O79">
+        <v>17638.859</v>
+      </c>
+      <c r="P79">
+        <v>12915.614</v>
+      </c>
+      <c r="Q79">
+        <v>2433.5920000000001</v>
+      </c>
+      <c r="R79">
+        <v>43952</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>7209.4539999999997</v>
+      </c>
+      <c r="U79">
+        <v>2673.9119999999998</v>
+      </c>
+      <c r="V79">
+        <v>1736.326</v>
+      </c>
+      <c r="W79">
+        <v>-90.617000000000004</v>
+      </c>
+      <c r="X79">
+        <v>892.23400000000004</v>
+      </c>
+      <c r="Y79">
+        <v>7956.759</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>650.44600000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>787.601</v>
+      </c>
+      <c r="D80">
+        <v>8684.241</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2818.2350000000001</v>
+      </c>
+      <c r="G80">
+        <v>7597.4080000000004</v>
+      </c>
+      <c r="H80">
+        <v>25847.433000000001</v>
+      </c>
+      <c r="I80">
+        <v>3400.6419999999998</v>
+      </c>
+      <c r="J80">
+        <v>4089.0010000000002</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5411.1880000000001</v>
+      </c>
+      <c r="O80">
+        <v>18491.362000000001</v>
+      </c>
+      <c r="P80">
+        <v>13229.618</v>
+      </c>
+      <c r="Q80">
+        <v>285.69200000000001</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>7356.0709999999999</v>
+      </c>
+      <c r="U80">
+        <v>2959.6039999999998</v>
+      </c>
+      <c r="V80">
+        <v>1171.009</v>
+      </c>
+      <c r="W80">
+        <v>-89.650999999999996</v>
+      </c>
+      <c r="X80">
+        <v>-657.16899999999998</v>
+      </c>
+      <c r="Y80">
+        <v>8124.884</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>787.601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>574.26</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>8199.625</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>2568.2399999999998</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>7533.4319999999998</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>26153.441999999999</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>3770.5279999999998</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>4131.5730000000003</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>5886.2110000000002</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>19167.922999999999</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>13460.968000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>-760.16099999999994</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44134</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>6985.5190000000002</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>2199.4430000000002</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>476.20499999999998</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-88.361999999999995</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-963.471</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>8285.027</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>574.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>642.74300000000005</v>
+      </c>
+      <c r="D82">
+        <v>8414.5239999999994</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2736.6950000000002</v>
+      </c>
+      <c r="G82">
+        <v>6914.2190000000001</v>
+      </c>
+      <c r="H82">
+        <v>25862.624</v>
+      </c>
+      <c r="I82">
+        <v>3614.0889999999999</v>
+      </c>
+      <c r="J82">
+        <v>4130.9750000000004</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>5710.7830000000004</v>
+      </c>
+      <c r="O82">
+        <v>19201.385999999999</v>
+      </c>
+      <c r="P82">
+        <v>13590.441999999999</v>
+      </c>
+      <c r="Q82">
+        <v>-822.86599999999999</v>
+      </c>
+      <c r="R82">
+        <v>44225</v>
+      </c>
+      <c r="S82">
+        <v>158000</v>
+      </c>
+      <c r="T82">
+        <v>6661.2380000000003</v>
+      </c>
+      <c r="U82">
+        <v>1376.577</v>
+      </c>
+      <c r="V82">
+        <v>492.61900000000003</v>
+      </c>
+      <c r="W82">
+        <v>-87.296000000000006</v>
+      </c>
+      <c r="X82">
+        <v>-986.58600000000001</v>
+      </c>
+      <c r="Y82">
+        <v>8385.3880000000008</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>642.74300000000005</v>
       </c>
     </row>
   </sheetData>
